--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P05_trail14 Features.xlsx
@@ -6342,7 +6342,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6354,28 +6354,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6396,115 +6394,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6521,72 +6509,66 @@
         <v>3.024103265567856e-08</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.03391813448516186</v>
+        <v>9.31016180075955e-08</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.378053823574799</v>
+        <v>1.036662158663425e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.31016180075955e-08</v>
+        <v>-0.04873360453984166</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.036662158663425e-06</v>
+        <v>0.02883255422525957</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.04873360453984166</v>
+        <v>0.003206148423749171</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.02883255422525957</v>
+        <v>1.935385986555555</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.003206148423749171</v>
+        <v>4.862785085041599</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.978160144553683</v>
+        <v>7.378191244964855</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>4.862785085041599</v>
+        <v>3.718070434835281e-19</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>7.378191244964855</v>
+        <v>148348860340.3938</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.718070434835281e-19</v>
+        <v>8.069725263393565e-10</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>148348860340.3938</v>
+        <v>8182.500515293647</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>8.069725263393565e-10</v>
+        <v>7.524833018242995e-06</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>8182.500515293647</v>
+        <v>8.665319878887333</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>7.524833018242995e-06</v>
+        <v>1.375853412864395</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.665319878887333</v>
+        <v>0.0005650229204533549</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.375853412864395</v>
+        <v>8.497573009469361</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.0005650229204533549</v>
+        <v>0.9579639658771405</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>8.497573009469361</v>
+        <v>0.6781963815956504</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9579639658771405</v>
+        <v>648</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>0.6781963815956504</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>648</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>18.29417191426911</v>
       </c>
     </row>
@@ -6601,72 +6583,66 @@
         <v>3.056338266897888e-08</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.0004253648826560335</v>
+        <v>9.471282589443075e-08</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.355671995857634</v>
+        <v>1.03516103790086e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>9.471282589443075e-08</v>
+        <v>-0.04992955366172074</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>1.03516103790086e-06</v>
+        <v>0.02549676943748994</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.04992955366172074</v>
+        <v>0.003143095772789515</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.02549676943748994</v>
+        <v>1.931070433068669</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.003143095772789515</v>
+        <v>4.796658235539215</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.973951366054022</v>
+        <v>7.261169946853321</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>4.796658235539215</v>
+        <v>3.838877253378264e-19</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>7.261169946853321</v>
+        <v>143838963495.5401</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>3.838877253378264e-19</v>
+        <v>8.323371874403823e-10</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>143838963495.5401</v>
+        <v>7942.501685902473</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>8.323371874403823e-10</v>
+        <v>6.431940665792864e-06</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>7942.501685902473</v>
+        <v>8.242028395270633</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>6.431940665792864e-06</v>
+        <v>1.552247237092864</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.242028395270633</v>
+        <v>0.0004369283676303261</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.552247237092864</v>
+        <v>8.634230842930286</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.0004369283676303261</v>
+        <v>0.958564726023679</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>8.634230842930286</v>
+        <v>0.6844734169981268</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.958564726023679</v>
+        <v>618</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>0.6844734169981268</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>618</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>19.33981942568411</v>
       </c>
     </row>
@@ -6681,72 +6657,66 @@
         <v>3.082515743826843e-08</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.0307360363264264</v>
+        <v>9.627461807337812e-08</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.330069537999553</v>
+        <v>1.033613281259421e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>9.627461807337812e-08</v>
+        <v>-0.05086209108198139</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>1.033613281259421e-06</v>
+        <v>0.02301434778978168</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.05086209108198139</v>
+        <v>0.00311674884155938</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.02301434778978168</v>
+        <v>1.930419774508573</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.00311674884155938</v>
+        <v>3.769070324414968</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.969634571090004</v>
+        <v>7.085421939078812</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>3.769070324414968</v>
+        <v>4.061932985493889e-19</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>7.085421939078812</v>
+        <v>137687973176.8509</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.061932985493889e-19</v>
+        <v>8.669328141972491e-10</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>137687973176.8509</v>
+        <v>7700.603600403523</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>8.669328141972491e-10</v>
+        <v>3.907017821961937e-06</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>7700.603600403523</v>
+        <v>8.634516523142349</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>3.907017821961937e-06</v>
+        <v>1.597485481401655</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.634516523142349</v>
+        <v>0.000291287227638105</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.597485481401655</v>
+        <v>8.906892164003045</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.000291287227638105</v>
+        <v>0.9577217082086527</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>8.906892164003045</v>
+        <v>0.6677739146059625</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9577217082086527</v>
+        <v>590</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>0.6677739146059625</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>20.38773309634928</v>
       </c>
     </row>
@@ -6761,72 +6731,66 @@
         <v>3.103038215072019e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.05969398924192598</v>
+        <v>9.777265431136534e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.302165809189355</v>
+        <v>1.032026999130618e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>9.777265431136534e-08</v>
+        <v>-0.05168623243644348</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>1.032026999130618e-06</v>
+        <v>0.02086237693760151</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.05168623243644348</v>
+        <v>0.003106883446097387</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.02086237693760151</v>
+        <v>1.935531159565425</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.003106883446097387</v>
+        <v>4.25366137393033</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.970444848617433</v>
+        <v>6.833883214745335</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>4.25366137393033</v>
+        <v>4.366455956718184e-19</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>6.833883214745335</v>
+        <v>128543578167.1219</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.366455956718184e-19</v>
+        <v>9.322637782217668e-10</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>128543578167.1219</v>
+        <v>7214.892317535201</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>9.322637782217668e-10</v>
+        <v>2.457687928773023e-06</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>7214.892317535201</v>
+        <v>8.772549755614563</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>2.457687928773023e-06</v>
+        <v>1.608067756415127</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.772549755614563</v>
+        <v>0.0001891378363480397</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.608067756415127</v>
+        <v>9.035736389112085</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.0001891378363480397</v>
+        <v>0.9585873121154693</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>9.035736389112085</v>
+        <v>0.6405060807976181</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9585873121154693</v>
+        <v>568</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>0.6405060807976181</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>568</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>20.93224316492705</v>
       </c>
     </row>
@@ -6841,72 +6805,66 @@
         <v>3.1176521950348e-08</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.08635201032587769</v>
+        <v>9.916322853413904e-08</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.273004027655873</v>
+        <v>1.030406054658247e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>9.916322853413904e-08</v>
+        <v>-0.05251775533063845</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>1.030406054658247e-06</v>
+        <v>0.01860392888149391</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.05251775533063845</v>
+        <v>0.003104436913832052</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.01860392888149391</v>
+        <v>1.943178164638677</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.003104436913832052</v>
+        <v>4.370115120598746</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.971805473508146</v>
+        <v>6.784249057531115</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>4.370115120598746</v>
+        <v>4.9891484004518e-19</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.784249057531115</v>
+        <v>110543697426.6918</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.9891484004518e-19</v>
+        <v>1.086978279609958e-09</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>110543697426.6918</v>
+        <v>6096.693964439417</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.086978279609958e-09</v>
+        <v>2.444021746812497e-06</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>6096.693964439417</v>
+        <v>9.014257220716537</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>2.444021746812497e-06</v>
+        <v>1.599094950203474</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.014257220716537</v>
+        <v>0.0001985934675187077</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.599094950203474</v>
+        <v>9.007284869273379</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0001985934675187077</v>
+        <v>0.9590683487821119</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>9.007284869273379</v>
+        <v>0.6692994059303157</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9590683487821119</v>
+        <v>536</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>0.6692994059303157</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>536</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>20.94541095832059</v>
       </c>
     </row>
@@ -6921,72 +6879,66 @@
         <v>3.125833841264714e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1104308677373369</v>
+        <v>1.004544273272055e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.243913949341092</v>
+        <v>1.02875308861138e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.004544273272055e-07</v>
+        <v>-0.05334996264665328</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>1.02875308861138e-06</v>
+        <v>0.01629133613380411</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.05334996264665328</v>
+        <v>0.003111880750220994</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.01629133613380411</v>
+        <v>1.943556702774086</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.003111880750220994</v>
+        <v>3.775088631299265</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.972780233027531</v>
+        <v>7.163602530003343</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>3.775088631299265</v>
+        <v>5.133779852384605e-19</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>7.163602530003343</v>
+        <v>110587422481.2534</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.133779852384605e-19</v>
+        <v>1.087303898686039e-09</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>110587422481.2534</v>
+        <v>6278.396119628003</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.087303898686039e-09</v>
+        <v>3.621694939140922e-06</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>6278.396119628003</v>
+        <v>10.5118101713663</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>3.621694939140922e-06</v>
+        <v>1.326309716910872</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>10.5118101713663</v>
+        <v>0.0004001906017900535</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.326309716910872</v>
+        <v>8.84141360572967</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0004001906017900535</v>
+        <v>0.9583957440059905</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>8.84141360572967</v>
+        <v>0.6724589125624046</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9583957440059905</v>
+        <v>525</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>0.6724589125624046</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>525</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>20.59974759331212</v>
       </c>
     </row>
@@ -7001,72 +6953,66 @@
         <v>3.127344702822908e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1316896428644213</v>
+        <v>1.0163863156068e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.216244175044417</v>
+        <v>1.027072229566966e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.0163863156068e-07</v>
+        <v>-0.05412697018745487</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>1.027072229566966e-06</v>
+        <v>0.01417442152948472</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05412697018745487</v>
+        <v>0.003130938100936996</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.01417442152948472</v>
+        <v>1.951031595305518</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.003130938100936996</v>
+        <v>3.797851117730874</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.976280767792303</v>
+        <v>7.04512997388673</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>3.797851117730874</v>
+        <v>5.307893301489687e-19</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>7.04512997388673</v>
+        <v>107960553718.4676</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.307893301489687e-19</v>
+        <v>1.113763187581179e-09</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>107960553718.4676</v>
+        <v>6186.605037054704</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.113763187581179e-09</v>
+        <v>5.314426696808235e-06</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>6186.605037054704</v>
+        <v>11.32055796735949</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>5.314426696808235e-06</v>
+        <v>1.202282198424848</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>11.32055796735949</v>
+        <v>0.0006810705270705376</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.202282198424848</v>
+        <v>8.655390297700952</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.0006810705270705376</v>
+        <v>0.9589237935475347</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>8.655390297700952</v>
+        <v>0.6689632089883751</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9589237935475347</v>
+        <v>499</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>0.6689632089883751</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>499</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>19.9773654283127</v>
       </c>
     </row>
@@ -7081,72 +7027,66 @@
         <v>3.12219380267562e-08</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1501076004975253</v>
+        <v>1.026600219271322e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.191284645663921</v>
+        <v>1.025369579301206e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.026600219271322e-07</v>
+        <v>-0.05479642336871095</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>1.025369579301206e-06</v>
+        <v>0.01253062160722833</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05479642336871095</v>
+        <v>0.003159990533188127</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.01253062160722833</v>
+        <v>1.953049210781994</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.003159990533188127</v>
+        <v>3.864661073933382</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.977729677741494</v>
+        <v>6.788614974023004</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>3.864661073933382</v>
+        <v>5.716600567643266e-19</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.788614974023004</v>
+        <v>100396945430.382</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.716600567643266e-19</v>
+        <v>1.199383949107537e-09</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>100396945430.382</v>
+        <v>5762.074211098718</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.199383949107537e-09</v>
+        <v>5.42198334225437e-06</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>5762.074211098718</v>
+        <v>11.47204729973811</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>5.42198334225437e-06</v>
+        <v>1.167444321762516</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>11.47204729973811</v>
+        <v>0.0007135756747691485</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.167444321762516</v>
+        <v>8.633818441094171</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0007135756747691485</v>
+        <v>0.9590767299302243</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>8.633818441094171</v>
+        <v>0.6681007689130742</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9590767299302243</v>
+        <v>463</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>0.6681007689130742</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>463</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>19.64390344026877</v>
       </c>
     </row>
@@ -7161,72 +7101,66 @@
         <v>3.110610585970149e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.1659625188924037</v>
+        <v>1.032470326513036e-07</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-1.1700506024152</v>
+        <v>1.023653014133914e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.032470326513036e-07</v>
+        <v>-0.05531514172831397</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>1.023653014133914e-06</v>
+        <v>0.01163120578046803</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.05531514172831397</v>
+        <v>0.003195394857185176</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.01163120578046803</v>
+        <v>1.950466481778738</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.003195394857185176</v>
+        <v>3.880651399980825</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.977104720100474</v>
+        <v>6.442614266280168</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>3.880651399980825</v>
+        <v>6.733277589375913e-19</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.442614266280168</v>
+        <v>84785459358.16026</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.733277589375913e-19</v>
+        <v>1.419113049039317e-09</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>84785459358.16026</v>
+        <v>4840.266501216367</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.419113049039317e-09</v>
+        <v>4.07659829636962e-06</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>4840.266501216367</v>
+        <v>11.52305198880078</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>4.07659829636962e-06</v>
+        <v>1.211800633541285</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>11.52305198880078</v>
+        <v>0.0005412936860358063</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.211800633541285</v>
+        <v>8.761799455215098</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0005412936860358063</v>
+        <v>0.9587377431355799</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>8.761799455215098</v>
+        <v>0.6689460889828209</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9587377431355799</v>
+        <v>415</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>0.6689460889828209</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>415</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>19.93777965113213</v>
       </c>
     </row>
@@ -7241,72 +7175,66 @@
         <v>3.092696514007206e-08</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.1796289305597992</v>
+        <v>1.033547837259091e-07</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-1.153542370948105</v>
+        <v>1.021930585763056e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.033547837259091e-07</v>
+        <v>-0.05569365038114635</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1.021930585763056e-06</v>
+        <v>0.01151648368611359</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05569365038114635</v>
+        <v>0.003234763116458221</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.01151648368611359</v>
+        <v>1.948217127349098</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.003234763116458221</v>
+        <v>3.045367159313742</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.975997991306033</v>
+        <v>7.038319724937951</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>3.045367159313742</v>
+        <v>8.918622688884537e-19</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>7.038319724937951</v>
+        <v>62989111317.51634</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>8.918622688884537e-19</v>
+        <v>1.910503915209438e-09</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>62989111317.51634</v>
+        <v>3538.577839122301</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.910503915209438e-09</v>
+        <v>5.089292082439921e-06</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>3538.577839122301</v>
+        <v>12.74936342365296</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>5.089292082439921e-06</v>
+        <v>1.215713064561612</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>12.74936342365296</v>
+        <v>0.0008272454332784185</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.215713064561612</v>
+        <v>8.739928721582924</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.0008272454332784185</v>
+        <v>0.9588659523810402</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>8.739928721582924</v>
+        <v>0.6754927833166531</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9588659523810402</v>
+        <v>369</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>0.6754927833166531</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>369</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>19.76593742920382</v>
       </c>
     </row>
@@ -7321,72 +7249,66 @@
         <v>3.068511586078269e-08</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.1917377456951043</v>
+        <v>1.027855678214002e-07</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-1.142535785936819</v>
+        <v>1.020211676124998e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.027855678214002e-07</v>
+        <v>-0.05582355148763887</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>1.020211676124998e-06</v>
+        <v>0.0125170590627939</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05582355148763887</v>
+        <v>0.003273264331690494</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.0125170590627939</v>
+        <v>1.942748600395965</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.003273264331690494</v>
+        <v>3.375595547747359</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.965823166194034</v>
+        <v>6.24047438585961</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>3.375595547747359</v>
+        <v>1.308345972552915e-18</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>6.24047438585961</v>
+        <v>42472927962.76265</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.308345972552915e-18</v>
+        <v>2.825449694441493e-09</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>42472927962.76265</v>
+        <v>2360.190206578681</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>2.825449694441493e-09</v>
+        <v>1.758525298665323e-05</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>2360.190206578681</v>
+        <v>12.99929906427178</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>1.758525298665323e-05</v>
+        <v>1.148163654783857</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>12.99929906427178</v>
+        <v>0.002971587283949408</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.148163654783857</v>
+        <v>8.13947365229723</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.002971587283949408</v>
+        <v>0.958835227358694</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>8.13947365229723</v>
+        <v>0.7000731532096945</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.958835227358694</v>
+        <v>322</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>0.7000731532096945</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>17.10075843932026</v>
       </c>
     </row>
@@ -7401,72 +7323,66 @@
         <v>3.038243868055744e-08</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.2035018298192551</v>
+        <v>1.015456473073187e-07</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-1.136939803808094</v>
+        <v>1.018508675700263e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.015456473073187e-07</v>
+        <v>-0.05564400176314667</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1.018508675700263e-06</v>
+        <v>0.01461491622668612</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05564400176314667</v>
+        <v>0.003310104399827603</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.01461491622668612</v>
+        <v>1.943727481743285</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.003310104399827603</v>
+        <v>2.969255814008626</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.963942854197794</v>
+        <v>5.48999135293151</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>2.969255814008626</v>
+        <v>2.038615184501715e-18</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.48999135293151</v>
+        <v>26966293737.94479</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>2.038615184501715e-18</v>
+        <v>4.459400141927818e-09</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>26966293737.94479</v>
+        <v>1482.442224324651</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.459400141927818e-09</v>
+        <v>5.475062277555258e-05</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>1482.442224324651</v>
+        <v>12.92261901830547</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>5.475062277555258e-05</v>
+        <v>1.116567292146596</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>12.92261901830547</v>
+        <v>0.009143030005333676</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.116567292146596</v>
+        <v>6.899498401776476</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.009143030005333676</v>
+        <v>0.9597359776272238</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>6.899498401776476</v>
+        <v>0.7299028818306509</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9597359776272238</v>
+        <v>269</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>0.7299028818306509</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>269</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>12.47159518811219</v>
       </c>
     </row>
@@ -7481,72 +7397,66 @@
         <v>3.00182950008566e-08</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.2162538477287317</v>
+        <v>9.997817138000758e-08</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-1.136165228900998</v>
+        <v>1.016834792526084e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>9.997817138000758e-08</v>
+        <v>-0.05511401105854412</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>1.016834792526084e-06</v>
+        <v>0.01774595594973342</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.05511401105854412</v>
+        <v>0.003352601368904461</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.01774595594973342</v>
+        <v>1.941731151147443</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.003352601368904461</v>
+        <v>2.801380593287561</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.962716935700321</v>
+        <v>5.376854281320353</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>2.801380593287561</v>
+        <v>3.285318132985964e-18</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>5.376854281320353</v>
+        <v>16622042344.29257</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>3.285318132985964e-18</v>
+        <v>7.217409356215141e-09</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>16622042344.29257</v>
+        <v>907.7080759113268</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>7.217409356215141e-09</v>
+        <v>0.0001002052924151212</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>907.7080759113268</v>
+        <v>13.09246096914072</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001002052924151212</v>
+        <v>1.092784097489864</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>13.09246096914072</v>
+        <v>0.01717644311598113</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.092784097489864</v>
+        <v>5.710331552451775</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01717644311598113</v>
+        <v>0.9586796008734119</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>5.710331552451775</v>
+        <v>0.7771036563365565</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9586796008734119</v>
+        <v>210</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>0.7771036563365565</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>210</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>8.590132805674781</v>
       </c>
     </row>
@@ -7561,72 +7471,66 @@
         <v>2.958886168545713e-08</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.2313353451274085</v>
+        <v>9.819710556786058e-08</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-1.139052543107588</v>
+        <v>1.015204599273671e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.819710556786058e-08</v>
+        <v>-0.05416840501443414</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>1.015204599273671e-06</v>
+        <v>0.02213948840020036</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.05416840501443414</v>
+        <v>0.003424269577114232</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.02213948840020036</v>
+        <v>1.936399214866264</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.003424269577114232</v>
+        <v>2.479841551417056</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.956045978147458</v>
+        <v>5.179145971351411</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>2.479841551417056</v>
+        <v>5.918821758223783e-18</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>5.179145971351411</v>
+        <v>9240901653.925396</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.918821758223783e-18</v>
+        <v>1.298880039004161e-08</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>9240901653.925396</v>
+        <v>505.4334241063645</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>1.298880039004161e-08</v>
+        <v>0.0001421467746237136</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>505.4334241063645</v>
+        <v>13.2388859523514</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001421467746237136</v>
+        <v>1.088050984015708</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>13.2388859523514</v>
+        <v>0.02491379528844147</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.088050984015708</v>
+        <v>4.778694733133191</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.02491379528844147</v>
+        <v>0.9595160620249295</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>4.778694733133191</v>
+        <v>0.8605044614995453</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9595160620249295</v>
+        <v>166</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>0.8605044614995453</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>166</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>6.001634827334864</v>
       </c>
     </row>
@@ -7641,72 +7545,66 @@
         <v>2.908521387566873e-08</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.2498326151190567</v>
+        <v>9.627329523567637e-08</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-1.143906111274433</v>
+        <v>1.013634997921531e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.627329523567637e-08</v>
+        <v>-0.0526953843866135</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1.013634997921531e-06</v>
+        <v>0.02826688563326264</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.0526953843866135</v>
+        <v>0.003575266676365264</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.02826688563326264</v>
+        <v>1.931881789185479</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.003575266676365264</v>
+        <v>2.277465865965568</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.953679186740026</v>
+        <v>4.490505735408719</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.277465865965568</v>
+        <v>9.797277370170513e-18</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.490505735408719</v>
+        <v>5510856930.388804</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.797277370170513e-18</v>
+        <v>2.175611566559333e-08</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>5510856930.388804</v>
+        <v>297.538847224006</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.175611566559333e-08</v>
+        <v>0.0001816210382131006</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>297.538847224006</v>
+        <v>13.76783771227324</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001816210382131006</v>
+        <v>1.051344301879338</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>13.76783771227324</v>
+        <v>0.03442687718118533</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.051344301879338</v>
+        <v>3.967910028965777</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.03442687718118533</v>
+        <v>0.9604497644083593</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.967910028965777</v>
+        <v>0.9131206908381569</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9604497644083593</v>
+        <v>117</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>0.9131206908381569</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>4.184160289826918</v>
       </c>
     </row>
@@ -7721,72 +7619,66 @@
         <v>2.849810978095175e-08</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.2721338242890726</v>
+        <v>9.422966951964628e-08</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-1.147887664043003</v>
+        <v>1.012145039439825e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.422966951964628e-08</v>
+        <v>-0.0506784168378025</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>1.012145039439825e-06</v>
+        <v>0.03591990413658127</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0506784168378025</v>
+        <v>0.003857470989336982</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.03591990413658127</v>
+        <v>1.926969396068964</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.003857470989336982</v>
+        <v>2.346233497767945</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.948278319122204</v>
+        <v>4.39113460305698</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.346233497767945</v>
+        <v>1.095895109359272e-17</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.39113460305698</v>
+        <v>4967292879.01038</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.095895109359272e-17</v>
+        <v>2.41838831063386e-08</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>4967292879.01038</v>
+        <v>270.4011433475368</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.41838831063386e-08</v>
+        <v>0.0001995317979964081</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>270.4011433475368</v>
+        <v>14.51020605762013</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001995317979964081</v>
+        <v>0.9576893406372787</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>14.51020605762013</v>
+        <v>0.04201063787049224</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>0.9576893406372787</v>
+        <v>3.327917572623487</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.04201063787049224</v>
+        <v>0.9612664849866792</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.327917572623487</v>
+        <v>0.9812153357563311</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9612664849866792</v>
+        <v>76</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>0.9812153357563311</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>2.971319791822687</v>
       </c>
     </row>
@@ -7801,72 +7693,66 @@
         <v>2.78276236634847e-08</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.2971835658628829</v>
+        <v>9.210199253038488e-08</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-1.147534086258558</v>
+        <v>1.010749450291146e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>9.210199253038488e-08</v>
+        <v>-0.04838382245565211</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1.010749450291146e-06</v>
+        <v>0.04370517228833429</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.04838382245565211</v>
+        <v>0.004250025650837848</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04370517228833429</v>
+        <v>1.892839345312903</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.004250025650837848</v>
+        <v>2.173995800352072</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.902738498922519</v>
+        <v>6.870391753180224</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.173995800352072</v>
+        <v>1.532640106223953e-17</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>6.870391753180224</v>
+        <v>3572322132.034789</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.532640106223953e-17</v>
+        <v>3.319911295981691e-08</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>3572322132.034789</v>
+        <v>195.5876436206023</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>3.319911295981691e-08</v>
+        <v>0.0001970139380061816</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>195.5876436206023</v>
+        <v>12.00338713020095</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001970139380061816</v>
+        <v>1.157466758763662</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>12.00338713020095</v>
+        <v>0.02838602481778858</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.157466758763662</v>
+        <v>3.185909971399872</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.02838602481778858</v>
+        <v>0.9582033650934503</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.185909971399872</v>
+        <v>1.269480943505139</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9582033650934503</v>
+        <v>51</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.269480943505139</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>1.752053824108399</v>
       </c>
     </row>
@@ -7881,72 +7767,66 @@
         <v>2.709231071799923e-08</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3228752260020632</v>
+        <v>8.990641133677675e-08</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-1.141165619255702</v>
+        <v>1.00944645423952e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.990641133677675e-08</v>
+        <v>-0.04658164203470074</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>1.00944645423952e-06</v>
+        <v>0.04893863786474188</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.04658164203470074</v>
+        <v>0.004564173970694519</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04893863786474188</v>
+        <v>1.89316375660512</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.004564173970694519</v>
+        <v>2.183796837797201</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.895567757549399</v>
+        <v>5.120966395630894</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>2.183796837797201</v>
+        <v>2.829750830259972e-17</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>5.120966395630894</v>
+        <v>1916083993.701561</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>2.829750830259972e-17</v>
+        <v>6.201900857977402e-08</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1916083993.701561</v>
+        <v>103.8908457843204</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>6.201900857977402e-08</v>
+        <v>0.0002328319972228907</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>103.8908457843204</v>
+        <v>9.28540316237636</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0002328319972228907</v>
+        <v>1.762087323287155</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>9.28540316237636</v>
+        <v>0.0200744748868375</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.762087323287155</v>
+        <v>2.927110927658631</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.0200744748868375</v>
+        <v>0.9592779929726966</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.927110927658631</v>
+        <v>1.497114434993362</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9592779929726966</v>
+        <v>31</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.497114434993362</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.6983875396665806</v>
       </c>
     </row>
@@ -7961,72 +7841,66 @@
         <v>2.631839404605126e-08</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3477562486245259</v>
+        <v>8.76675714928743e-08</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-1.129532511402429</v>
+        <v>1.008220777178076e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.76675714928743e-08</v>
+        <v>-0.04526210271477512</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1.008220777178076e-06</v>
+        <v>0.05259701445152769</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.04526210271477512</v>
+        <v>0.004814654263177966</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.05259701445152769</v>
+        <v>1.884510405494967</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.004814654263177966</v>
+        <v>2.131762253200856</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.89135750281628</v>
+        <v>4.566434542427766</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>2.131762253200856</v>
+        <v>3.558750774387986e-17</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.566434542427766</v>
+        <v>1525235012.820956</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.558750774387986e-17</v>
+        <v>7.76965879959831e-08</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1525235012.820956</v>
+        <v>82.78870840018145</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>7.76965879959831e-08</v>
+        <v>0.0001839745212134109</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>82.78870840018145</v>
+        <v>9.423416882500272</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001839745212134109</v>
+        <v>1.463945731622577</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.423416882500272</v>
+        <v>0.01633708204014712</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.463945731622577</v>
+        <v>3.016177401699416</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01633708204014712</v>
+        <v>0.95778809109536</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.016177401699416</v>
+        <v>1.491788037528076</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.95778809109536</v>
+        <v>17</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.491788037528076</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.4171412071312119</v>
       </c>
     </row>
@@ -8041,72 +7915,66 @@
         <v>2.552427756539741e-08</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.3713759091024788</v>
+        <v>8.539420528091753e-08</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.113786733684183</v>
+        <v>1.00705905401255e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>8.539420528091753e-08</v>
+        <v>-0.04444745881016245</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1.00705905401255e-06</v>
+        <v>0.05519168836184427</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.04444745881016245</v>
+        <v>0.005021382718784254</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.05519168836184427</v>
+        <v>1.881389017075638</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005021382718784254</v>
+        <v>2.10974251413585</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.890456428374747</v>
+        <v>4.143507198412087</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.10974251413585</v>
+        <v>4.322309412063221e-17</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.143507198412087</v>
+        <v>1239116323.593305</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>4.322309412063221e-17</v>
+        <v>9.553285789273204e-08</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>1239116323.593305</v>
+        <v>66.36513910542945</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>9.553285789273204e-08</v>
+        <v>0.0001560959743877121</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>66.36513910542945</v>
+        <v>10.31153233164543</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001560959743877121</v>
+        <v>1.163046050518884</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.31153233164543</v>
+        <v>0.01659732578395568</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.163046050518884</v>
+        <v>3.033138113314199</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01659732578395568</v>
+        <v>0.9571863634014891</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.033138113314199</v>
+        <v>1.389768044583628</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9571863634014891</v>
+        <v>11</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.389768044583628</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3314094012239017</v>
       </c>
     </row>
@@ -8121,72 +7989,66 @@
         <v>2.472464231080371e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.3939917469875782</v>
+        <v>8.30885711699824e-08</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.094953895632306</v>
+        <v>1.005947740797331e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>8.30885711699824e-08</v>
+        <v>-0.04406478711629638</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1.005947740797331e-06</v>
+        <v>0.05718436773901066</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.04406478711629638</v>
+        <v>0.005211435262824495</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.05718436773901066</v>
+        <v>1.878207618763041</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005211435262824495</v>
+        <v>2.125437489015091</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.883975274404819</v>
+        <v>4.00857357326721</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.125437489015091</v>
+        <v>4.618195671039529e-17</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.00857357326721</v>
+        <v>1147313543.841489</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>4.618195671039529e-17</v>
+        <v>1.029716681736017e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1147313543.841489</v>
+        <v>60.7906197021972</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.029716681736017e-07</v>
+        <v>0.0001473173626191725</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>60.7906197021972</v>
+        <v>11.11723889115814</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001473173626191725</v>
+        <v>1.09667827897422</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>11.11723889115814</v>
+        <v>0.0182073948811427</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.09667827897422</v>
+        <v>2.979769469800009</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.0182073948811427</v>
+        <v>0.957177511231773</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>2.979769469800009</v>
+        <v>1.476644536542542</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.957177511231773</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.476644536542542</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.3132388037622738</v>
       </c>
     </row>
@@ -8201,72 +8063,66 @@
         <v>2.392858823728615e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4160616105692688</v>
+        <v>8.076831793473568e-08</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.073330927220024</v>
+        <v>1.00487814181511e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.076831793473568e-08</v>
+        <v>-0.04389509553509329</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>1.00487814181511e-06</v>
+        <v>0.05899980262298828</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.04389509553509329</v>
+        <v>0.005407394407044432</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.05899980262298828</v>
+        <v>1.871852205280383</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005407394407044432</v>
+        <v>2.091827479279621</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.881371703343063</v>
+        <v>3.979937352294819</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.091827479279621</v>
+        <v>4.684891917979655e-17</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.979937352294819</v>
+        <v>1121207515.827043</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>4.684891917979655e-17</v>
+        <v>1.051137022279393e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>1121207515.827043</v>
+        <v>58.89407114679925</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.051137022279393e-07</v>
+        <v>0.0001402234019120391</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>58.89407114679925</v>
+        <v>10.92072762445807</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001402234019120391</v>
+        <v>1.124130428538893</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>10.92072762445807</v>
+        <v>0.01672336428269713</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.124130428538893</v>
+        <v>3.139567981793408</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01672336428269713</v>
+        <v>0.9574492189016561</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.139567981793408</v>
+        <v>1.408529800728902</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9574492189016561</v>
+        <v>1</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.408529800728902</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3130438235355063</v>
       </c>
     </row>
@@ -8281,72 +8137,66 @@
         <v>2.314074744926196e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.4379110084676442</v>
+        <v>7.844922412052242e-08</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.04865164652058</v>
+        <v>1.003846443429564e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.844922412052242e-08</v>
+        <v>-0.04378389733800914</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1.003846443429564e-06</v>
+        <v>0.06081188052133094</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.04378389733800914</v>
+        <v>0.005614717780801671</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.06081188052133094</v>
+        <v>1.8758115643815</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.005614717780801671</v>
+        <v>2.115974290186856</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.883291562446347</v>
+        <v>3.978369634088039</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>2.115974290186856</v>
+        <v>4.688584906886484e-17</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>3.978369634088039</v>
+        <v>1175363853.773892</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>4.688584906886484e-17</v>
+        <v>1.001808779372473e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1175363853.773892</v>
+        <v>64.77187162174458</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.001808779372473e-07</v>
+        <v>0.0001595321141022962</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>64.77187162174458</v>
+        <v>9.695538802238506</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001595321141022962</v>
+        <v>1.425281974782841</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.695538802238506</v>
+        <v>0.01499657272731852</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.425281974782841</v>
+        <v>3.25371662261978</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01499657272731852</v>
+        <v>0.9573196762310372</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.25371662261978</v>
+        <v>1.436391473245113</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9573196762310372</v>
+        <v>41</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.436391473245113</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3046954921312839</v>
       </c>
     </row>
@@ -8361,72 +8211,66 @@
         <v>2.236275104980653e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.4596274070252976</v>
+        <v>7.617247395390902e-08</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.020445149209995</v>
+        <v>1.002851867532224e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>7.617247395390902e-08</v>
+        <v>-0.04363063234827998</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.002851867532224e-06</v>
+        <v>0.06273990299715639</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.04363063234827998</v>
+        <v>0.005839521882190862</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.06273990299715639</v>
+        <v>1.873207864386361</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.005839521882190862</v>
+        <v>2.090410461225178</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.878873949911466</v>
+        <v>3.979632771548903</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>2.090410461225178</v>
+        <v>4.685609060772326e-17</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>3.979632771548903</v>
+        <v>1182543218.236254</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.685609060772326e-17</v>
+        <v>1.003276596097972e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1182543218.236254</v>
+        <v>65.52395364877368</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.003276596097972e-07</v>
+        <v>0.0001868098146342703</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>65.52395364877368</v>
+        <v>9.406264571108418</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001868098146342703</v>
+        <v>1.579688436131583</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.406264571108418</v>
+        <v>0.016528523879717</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.579688436131583</v>
+        <v>3.110152760122117</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.016528523879717</v>
+        <v>0.9569986664486227</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.110152760122117</v>
+        <v>1.458747570371276</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9569986664486227</v>
+        <v>48</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.458747570371276</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2991205208779846</v>
       </c>
     </row>
@@ -8441,72 +8285,66 @@
         <v>2.159328199861298e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.4808701231382624</v>
+        <v>7.396077866312777e-08</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.9884413670594192</v>
+        <v>1.00189623001991e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.396077866312777e-08</v>
+        <v>-0.0432842135010372</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1.00189623001991e-06</v>
+        <v>0.06494519732930826</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.0432842135010372</v>
+        <v>0.006090949283918893</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.06494519732930826</v>
+        <v>1.873626991325799</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.006090949283918893</v>
+        <v>2.062148679758638</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.87891623812418</v>
+        <v>3.962204645552962</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>2.062148679758638</v>
+        <v>4.72691989148522e-17</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.962204645552962</v>
+        <v>1186282238.242361</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.72691989148522e-17</v>
+        <v>1.002580822726881e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1186282238.242361</v>
+        <v>66.52031515079497</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.002580822726881e-07</v>
+        <v>0.0001644406147011113</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>66.52031515079497</v>
+        <v>10.10227544666364</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001644406147011113</v>
+        <v>1.249082366375429</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>10.10227544666364</v>
+        <v>0.01678214630920895</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.249082366375429</v>
+        <v>3.044084995669572</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.01678214630920895</v>
+        <v>0.9570157182238765</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.044084995669572</v>
+        <v>1.486003139440626</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9570157182238765</v>
+        <v>48</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.486003139440626</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.3002117374292654</v>
       </c>
     </row>
@@ -8521,72 +8359,66 @@
         <v>2.083001619627823e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.5009321688946177</v>
+        <v>7.179340287555582e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.9522834389286854</v>
+        <v>1.000984446249954e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.179340287555582e-08</v>
+        <v>-0.04263194383226147</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>1.000984446249954e-06</v>
+        <v>0.06755534521976066</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.04263194383226147</v>
+        <v>0.006380656879941811</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.06755534521976066</v>
+        <v>1.871814825197704</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.006380656879941811</v>
+        <v>2.051847716698368</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.881588465853662</v>
+        <v>3.960342255412749</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>2.051847716698368</v>
+        <v>4.731366698537386e-17</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>3.960342255412749</v>
+        <v>1211703917.589874</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>4.731366698537386e-17</v>
+        <v>9.827648757052633e-08</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1211703917.589874</v>
+        <v>69.46717418710958</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>9.827648757052633e-08</v>
+        <v>0.000152202685347587</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>69.46717418710958</v>
+        <v>11.29244059862902</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000152202685347587</v>
+        <v>1.085295581141968</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>11.29244059862902</v>
+        <v>0.01940876690673199</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.085295581141968</v>
+        <v>2.947560999563396</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.01940876690673199</v>
+        <v>0.9578165357213277</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.947560999563396</v>
+        <v>1.420168302101726</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9578165357213277</v>
+        <v>48</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.420168302101726</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.3120413928672724</v>
       </c>
     </row>
@@ -8601,72 +8433,66 @@
         <v>2.007158051600467e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.5187797751009887</v>
+        <v>6.967562507287568e-08</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.9117964972202985</v>
+        <v>1.000122269216305e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.967562507287568e-08</v>
+        <v>-0.04159088205183452</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1.000122269216305e-06</v>
+        <v>0.07075457707274278</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.04159088205183452</v>
+        <v>0.006735220485047799</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.07075457707274278</v>
+        <v>1.879027590228927</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.006735220485047799</v>
+        <v>2.023578277300486</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.885498204295413</v>
+        <v>3.936843889647159</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>2.023578277300486</v>
+        <v>4.788016743090708e-17</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.936843889647159</v>
+        <v>1209475539.012337</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.788016743090708e-17</v>
+        <v>9.87002251500476e-08</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1209475539.012337</v>
+        <v>70.04059700811904</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>9.87002251500476e-08</v>
+        <v>0.0001457812087589343</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>70.04059700811904</v>
+        <v>11.37272278159341</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0001457812087589343</v>
+        <v>1.092244446272194</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>11.37272278159341</v>
+        <v>0.01885517002447386</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.092244446272194</v>
+        <v>3.06998617968757</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.01885517002447386</v>
+        <v>0.9582157548746628</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.06998617968757</v>
+        <v>1.434726011288882</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9582157548746628</v>
+        <v>48</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.434726011288882</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.3291690309090248</v>
       </c>
     </row>
@@ -8681,72 +8507,66 @@
         <v>1.931768495168583e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.5326608405255683</v>
+        <v>6.760096762766074e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.8673515619264931</v>
+        <v>9.993179687680495e-07</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.760096762766074e-08</v>
+        <v>-0.03996016293927586</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>9.993179687680495e-07</v>
+        <v>0.07492173579922998</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03996016293927586</v>
+        <v>0.007208831402947094</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.07492173579922998</v>
+        <v>1.879618939234811</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.007208831402947094</v>
+        <v>1.980739922941614</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.885733062598753</v>
+        <v>3.912507446530786</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.980739922941614</v>
+        <v>4.847766504997327e-17</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.912507446530786</v>
+        <v>1195022443.584692</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>4.847766504997327e-17</v>
+        <v>9.978219024624205e-08</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1195022443.584692</v>
+        <v>69.22991800747606</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>9.978219024624205e-08</v>
+        <v>0.0001530916572560529</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>69.22991800747606</v>
+        <v>10.74351455990104</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001530916572560529</v>
+        <v>1.241451487020771</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>10.74351455990104</v>
+        <v>0.01767031444521574</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.241451487020771</v>
+        <v>3.248681230270162</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.01767031444521574</v>
+        <v>0.9582073286721968</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.248681230270162</v>
+        <v>1.449716522430373</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9582073286721968</v>
+        <v>48</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.449716522430373</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.3704155211444721</v>
       </c>
     </row>
@@ -8761,72 +8581,66 @@
         <v>1.857047126081856e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.5396192378840545</v>
+        <v>6.558902042121025e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.8211823408823253</v>
+        <v>9.985821172960692e-07</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.558902042121025e-08</v>
+        <v>-0.03754979353709595</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>9.985821172960692e-07</v>
+        <v>0.08057975206261581</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.03754979353709595</v>
+        <v>0.007900949260097474</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.08057975206261581</v>
+        <v>1.886101511068905</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.007900949260097474</v>
+        <v>1.925272695990112</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.887680589725141</v>
+        <v>3.911299273501946</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.925272695990112</v>
+        <v>4.850761849979074e-17</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.911299273501946</v>
+        <v>1200763123.674288</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>4.850761849979074e-17</v>
+        <v>9.950595300856859e-08</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1200763123.674288</v>
+        <v>69.93984043743107</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>9.950595300856859e-08</v>
+        <v>0.0001936090979916037</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>69.93984043743107</v>
+        <v>10.32872147883131</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0001936090979916037</v>
+        <v>1.485828680822149</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>10.32872147883131</v>
+        <v>0.02065470015455024</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.485828680822149</v>
+        <v>3.165603316297614</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.02065470015455024</v>
+        <v>0.9573372811203587</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.165603316297614</v>
+        <v>1.436834361187147</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9573372811203587</v>
+        <v>48</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.436834361187147</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.4670745526168515</v>
       </c>
     </row>
@@ -8841,72 +8655,66 @@
         <v>1.783770198585498e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.5351699330913492</v>
+        <v>6.362501111470976e-08</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.7794166595160235</v>
+        <v>9.979275892369245e-07</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.362501111470976e-08</v>
+        <v>-0.03413541269329658</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>9.979275892369245e-07</v>
+        <v>0.0882450694398008</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03413541269329658</v>
+        <v>0.008948823001628185</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.0882450694398008</v>
+        <v>1.888576401699922</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.008948823001628185</v>
+        <v>1.918381044278226</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.8899121524962</v>
+        <v>3.983419865568933</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.918381044278226</v>
+        <v>4.676703945310873e-17</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>3.983419865568933</v>
+        <v>1243494382.845241</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>4.676703945310873e-17</v>
+        <v>9.603683619503008e-08</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1243494382.845241</v>
+        <v>72.3148573340864</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>9.603683619503008e-08</v>
+        <v>0.0002169314587984468</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>72.3148573340864</v>
+        <v>11.14877305626642</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002169314587984468</v>
+        <v>1.354362493538372</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>11.14877305626642</v>
+        <v>0.02696352618496059</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.354362493538372</v>
+        <v>2.975474948556116</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.02696352618496059</v>
+        <v>0.9567997405329599</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.975474948556116</v>
+        <v>1.409678486187802</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9567997405329599</v>
+        <v>48</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.409678486187802</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.6716748908117912</v>
       </c>
     </row>
@@ -8921,72 +8729,66 @@
         <v>1.713784898595968e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.5141161964074948</v>
+        <v>6.169146150424276e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.7538276233511283</v>
+        <v>9.973684570678008e-07</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>6.169146150424276e-08</v>
+        <v>-0.0296167246123847</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>9.973684570678008e-07</v>
+        <v>0.0979104043471052</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.0296167246123847</v>
+        <v>0.01045868573490614</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.0979104043471052</v>
+        <v>1.886422377811348</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01045868573490614</v>
+        <v>2.019894317373441</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.886605101405799</v>
+        <v>3.875503020864744</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>2.019894317373441</v>
+        <v>4.465720939856334e-17</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>3.875503020864744</v>
+        <v>1292729999.238418</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>4.465720939856334e-17</v>
+        <v>9.229541399059595e-08</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1292729999.238418</v>
+        <v>74.62893348661119</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>9.229541399059595e-08</v>
+        <v>0.0002122590016754303</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>74.62893348661119</v>
+        <v>13.40049466431299</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002122590016754303</v>
+        <v>1.014920521289312</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>13.40049466431299</v>
+        <v>0.03811604031112532</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.014920521289312</v>
+        <v>2.699677114448708</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.03811604031112532</v>
+        <v>0.9549376751819414</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.699677114448708</v>
+        <v>1.479263274129452</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9549376751819414</v>
+        <v>48</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.479263274129452</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.8806704441149638</v>
       </c>
     </row>
@@ -9001,72 +8803,66 @@
         <v>1.649966845705213e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.4736405529102606</v>
+        <v>5.979490749398124e-08</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.7599156310815052</v>
+        <v>9.96913620556543e-07</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.979490749398124e-08</v>
+        <v>-0.02429813287697929</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>9.96913620556543e-07</v>
+        <v>0.1082598582294693</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.02429813287697929</v>
+        <v>0.01230461269413103</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1082598582294693</v>
+        <v>1.916254223263302</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01230461269413103</v>
+        <v>1.910067920483766</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.932703493934861</v>
+        <v>4.014963060784377</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.910067920483766</v>
+        <v>4.160874648904272e-17</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.014963060784377</v>
+        <v>1374524111.259185</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>4.160874648904272e-17</v>
+        <v>8.750919080779777e-08</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1374524111.259185</v>
+        <v>78.61209263555581</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>8.750919080779777e-08</v>
+        <v>0.0002190144016546265</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>78.61209263555581</v>
+        <v>13.36190145222335</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0002190144016546265</v>
+        <v>1.019901189602106</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>13.36190145222335</v>
+        <v>0.03910292115907307</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.019901189602106</v>
+        <v>2.62723007908668</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.03910292115907307</v>
+        <v>0.9585517483331626</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>2.62723007908668</v>
+        <v>1.259707564554643</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9585517483331626</v>
+        <v>47</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.259707564554643</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.9035170491857569</v>
       </c>
     </row>
@@ -9081,72 +8877,66 @@
         <v>1.595954141390143e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.4168112461163025</v>
+        <v>5.791940846401185e-08</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.8084083574707659</v>
+        <v>9.96568175753771e-07</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.791940846401185e-08</v>
+        <v>-0.01806180337780061</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>9.96568175753771e-07</v>
+        <v>0.1190121973584864</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.01806180337780061</v>
+        <v>0.01448256160936214</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1190121973584864</v>
+        <v>1.917877776512338</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01448256160936214</v>
+        <v>2.0945978964617</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.93666906153386</v>
+        <v>3.763921946227905</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>2.0945978964617</v>
+        <v>3.189297727117253e-17</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.763921946227905</v>
+        <v>1816014405.574099</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>3.189297727117253e-17</v>
+        <v>6.619050947246122e-08</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1816014405.574099</v>
+        <v>105.1801151321215</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.619050947246122e-08</v>
+        <v>0.0001970908735368291</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>105.1801151321215</v>
+        <v>12.58803971274786</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001970908735368291</v>
+        <v>1.069419847960022</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>12.58803971274786</v>
+        <v>0.03123077223700576</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.069419847960022</v>
+        <v>2.929520438628827</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.03123077223700576</v>
+        <v>0.9595344533466079</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>2.929520438628827</v>
+        <v>1.212289414939196</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9595344533466079</v>
+        <v>47</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.212289414939196</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>1.03133085014787</v>
       </c>
     </row>
@@ -9161,72 +8951,66 @@
         <v>1.556161180456696e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.3559761578866655</v>
+        <v>5.607694228764729e-08</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.8910570433415201</v>
+        <v>9.963377395273963e-07</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.607694228764729e-08</v>
+        <v>-0.01118455290580649</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>9.963377395273963e-07</v>
+        <v>0.1288901426038973</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.01118455290580649</v>
+        <v>0.01673124746337495</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1288901426038973</v>
+        <v>1.892109762951508</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01673124746337495</v>
+        <v>2.027732887095441</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.895999549130141</v>
+        <v>4.091061771651754</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>2.027732887095441</v>
+        <v>3.128184945900719e-17</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>4.091061771651754</v>
+        <v>1866044682.698065</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>3.128184945900719e-17</v>
+        <v>6.390549170525003e-08</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1866044682.698065</v>
+        <v>108.9272399080872</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.390549170525003e-08</v>
+        <v>0.0001788259865922938</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>108.9272399080872</v>
+        <v>10.89088322617749</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001788259865922938</v>
+        <v>1.308177336792134</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.89088322617749</v>
+        <v>0.02121078943985432</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.308177336792134</v>
+        <v>3.277644070020977</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.02121078943985432</v>
+        <v>0.9589204824096997</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.277644070020977</v>
+        <v>1.327999738562513</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9589204824096997</v>
+        <v>48</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.327999738562513</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.9816147398102502</v>
       </c>
     </row>
@@ -9241,72 +9025,66 @@
         <v>1.53314203391355e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.3109729701596612</v>
+        <v>5.429266296905473e-08</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.9682050368598909</v>
+        <v>9.962141014439792e-07</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.429266296905473e-08</v>
+        <v>-0.004913356402783555</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>9.962141014439792e-07</v>
+        <v>0.134957061704826</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.004913356402783555</v>
+        <v>0.01823289945884801</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.134957061704826</v>
+        <v>1.887985807502522</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01823289945884801</v>
+        <v>2.084761618195459</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.885753576231002</v>
+        <v>4.102357063506714</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>2.084761618195459</v>
+        <v>3.136378718593941e-17</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>4.102357063506714</v>
+        <v>1902595566.16872</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>3.136378718593941e-17</v>
+        <v>6.2382085399757e-08</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1902595566.16872</v>
+        <v>113.5328288207206</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.2382085399757e-08</v>
+        <v>0.0001834201153986761</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>113.5328288207206</v>
+        <v>11.42100804427841</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001834201153986761</v>
+        <v>1.365252546398289</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>11.42100804427841</v>
+        <v>0.02392521433971828</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.365252546398289</v>
+        <v>3.328447269040854</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.02392521433971828</v>
+        <v>0.9589600516897693</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.328447269040854</v>
+        <v>1.405681167350316</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9589600516897693</v>
+        <v>48</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.405681167350316</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.8296632659890687</v>
       </c>
     </row>
@@ -9321,72 +9099,66 @@
         <v>1.52697578659877e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.2973316756193907</v>
+        <v>5.316814365354535e-08</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9942938188028489</v>
+        <v>9.96182281311751e-07</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>5.316814365354535e-08</v>
+        <v>0.0006987018423138901</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>9.96182281311751e-07</v>
+        <v>0.1378106092306347</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0.0006987018423138901</v>
+        <v>0.01898841575264532</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1378106092306347</v>
+        <v>1.885251957423434</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01898841575264532</v>
+        <v>2.242794191326371</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.879556339346587</v>
+        <v>4.144521880773162</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>2.242794191326371</v>
+        <v>3.072886651447448e-17</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.144521880773162</v>
+        <v>2075032155.127708</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>3.072886651447448e-17</v>
+        <v>5.775762898804274e-08</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>2075032155.127708</v>
+        <v>132.3110764942588</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.775762898804274e-08</v>
+        <v>0.0001528427009059657</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>132.3110764942588</v>
+        <v>13.53727284369783</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001528427009059657</v>
+        <v>1.105313943439422</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>13.53727284369783</v>
+        <v>0.02800961039584138</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.105313943439422</v>
+        <v>3.347490786616864</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.02800961039584138</v>
+        <v>0.9591295367250781</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.347490786616864</v>
+        <v>1.417009554339556</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9591295367250781</v>
+        <v>53</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.417009554339556</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.7137647528944538</v>
       </c>
     </row>
@@ -9401,72 +9173,66 @@
         <v>1.537599099448143e-08</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.3224548825373172</v>
+        <v>5.65216733844265e-08</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.9421495260660913</v>
+        <v>9.962349879468618e-07</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>5.65216733844265e-08</v>
+        <v>0.00620510938421089</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>9.962349879468618e-07</v>
+        <v>0.1388322133493839</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0.00620510938421089</v>
+        <v>0.01930879614354744</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1388322133493839</v>
+        <v>1.885847992242868</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.01930879614354744</v>
+        <v>2.405366963122143</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.88151216553269</v>
+        <v>4.240597003063549</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>2.405366963122143</v>
+        <v>2.935225085012143e-17</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>4.240597003063549</v>
+        <v>2198872093.491356</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>2.935225085012143e-17</v>
+        <v>5.452844337824883e-08</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>2198872093.491356</v>
+        <v>141.9192624387119</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>5.452844337824883e-08</v>
+        <v>0.0001187678583219658</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>141.9192624387119</v>
+        <v>12.34706915256924</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001187678583219658</v>
+        <v>1.124209140534432</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>12.34706915256924</v>
+        <v>0.01810617385644333</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.124209140534432</v>
+        <v>3.516675146385567</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.01810617385644333</v>
+        <v>0.9581303656257456</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.516675146385567</v>
+        <v>1.426468261302613</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9581303656257456</v>
+        <v>53</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.426468261302613</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.569031621072982</v>
       </c>
     </row>
@@ -9481,72 +9247,66 @@
         <v>1.565182128525384e-08</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.3859691676845325</v>
+        <v>5.954215444154816e-08</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.808360338609087</v>
+        <v>9.963710470359839e-07</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>5.954215444154816e-08</v>
+        <v>0.0111284751899971</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>9.963710470359839e-07</v>
+        <v>0.1376221776113058</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0.0111284751899971</v>
+        <v>0.01906114614993398</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1376221776113058</v>
+        <v>1.858212199906141</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.01906114614993398</v>
+        <v>2.372874206529537</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.844533776575698</v>
+        <v>3.864313587887272</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>2.372874206529537</v>
+        <v>3.710929494593898e-17</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.864313587887272</v>
+        <v>1711150858.743377</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>3.710929494593898e-17</v>
+        <v>6.906740249845518e-08</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1711150858.743377</v>
+        <v>108.657398345183</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>6.906740249845518e-08</v>
+        <v>0.0001023947861010779</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>108.657398345183</v>
+        <v>9.435988949774858</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001023947861010779</v>
+        <v>1.245595064267691</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.435988949774858</v>
+        <v>0.009117015441386518</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.245595064267691</v>
+        <v>3.646798236741915</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.009117015441386518</v>
+        <v>0.9583625962409011</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.646798236741915</v>
+        <v>1.494668215358834</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9583625962409011</v>
+        <v>14</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.494668215358834</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.5132060961266629</v>
       </c>
     </row>
@@ -9561,72 +9321,66 @@
         <v>1.606973382408197e-08</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.4727164202344339</v>
+        <v>6.198804699263605e-08</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.6327643190903363</v>
+        <v>9.965799334518316e-07</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>6.198804699263605e-08</v>
+        <v>0.01511820334411211</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>9.965799334518316e-07</v>
+        <v>0.1343879131995199</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0.01511820334411211</v>
+        <v>0.01828657369474809</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1343879131995199</v>
+        <v>1.863221568913166</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01828657369474809</v>
+        <v>2.276676885204933</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.845077954517233</v>
+        <v>3.803474881455556</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>2.276676885204933</v>
+        <v>3.830595747729749e-17</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.803474881455556</v>
+        <v>1650922612.529566</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>3.830595747729749e-17</v>
+        <v>7.171144070800843e-08</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1650922612.529566</v>
+        <v>104.4046289743794</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>7.171144070800843e-08</v>
+        <v>9.495355538336011e-05</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>104.4046289743794</v>
+        <v>7.20670410014206</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>9.495355538336011e-05</v>
+        <v>1.417010469957819</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>7.20670410014206</v>
+        <v>0.004931563304032554</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.417010469957819</v>
+        <v>3.805015821520262</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.004931563304032554</v>
+        <v>0.9583449213260116</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>3.805015821520262</v>
+        <v>1.492074605524735</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9583449213260116</v>
+        <v>18</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.492074605524735</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.5341112630589057</v>
       </c>
     </row>
@@ -9641,72 +9395,66 @@
         <v>1.660954543112688e-08</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.5679290515232219</v>
+        <v>6.441911185269912e-08</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.4559097628124782</v>
+        <v>9.968567686089375e-07</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>6.441911185269912e-08</v>
+        <v>0.01871401668272215</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>9.968567686089375e-07</v>
+        <v>0.1302426543130885</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0.01871401668272215</v>
+        <v>0.0173114001719903</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1302426543130885</v>
+        <v>1.862707766564783</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.0173114001719903</v>
+        <v>2.215317306920657</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.841726185137676</v>
+        <v>3.814736867675382</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>2.215317306920657</v>
+        <v>3.808011523331511e-17</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.814736867675382</v>
+        <v>1641184555.66127</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>3.808011523331511e-17</v>
+        <v>7.204546223875536e-08</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1641184555.66127</v>
+        <v>102.5682856572273</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>7.204546223875536e-08</v>
+        <v>8.927565882948972e-05</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>102.5682856572273</v>
+        <v>7.515404293187165</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>8.927565882948972e-05</v>
+        <v>2.083879735504685</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>7.515404293187165</v>
+        <v>0.005042405419926926</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>2.083879735504685</v>
+        <v>4.018743934171923</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.005042405419926926</v>
+        <v>0.9581720163246429</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>4.018743934171923</v>
+        <v>1.484823906296772</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9581720163246429</v>
+        <v>27</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.484823906296772</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.5995831480043874</v>
       </c>
     </row>
@@ -9721,72 +9469,66 @@
         <v>1.725717096562298e-08</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.6603715053631792</v>
+        <v>6.66753033667835e-08</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.3061548203720532</v>
+        <v>9.972002989721031e-07</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>6.66753033667835e-08</v>
+        <v>0.02174430703787823</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>9.972002989721031e-07</v>
+        <v>0.125321040867626</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0.02174430703787823</v>
+        <v>0.01617673764834848</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.125321040867626</v>
+        <v>1.862497085866201</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.01617673764834848</v>
+        <v>2.182344063508674</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.838565900807991</v>
+        <v>3.763372523835923</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>2.182344063508674</v>
+        <v>3.912668081712729e-17</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>3.763372523835923</v>
+        <v>1602928481.157541</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>3.912668081712729e-17</v>
+        <v>7.37407667772096e-08</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1602928481.157541</v>
+        <v>100.5313000344308</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>7.37407667772096e-08</v>
+        <v>7.763740984450714e-05</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>100.5313000344308</v>
+        <v>9.987974537035694</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>7.763740984450714e-05</v>
+        <v>1.61496708497851</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>9.987974537035694</v>
+        <v>0.00774507969579856</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.61496708497851</v>
+        <v>4.143115355303665</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.00774507969579856</v>
+        <v>0.9586186080496309</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>4.143115355303665</v>
+        <v>1.489367994028022</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.9586186080496309</v>
+        <v>27</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.489367994028022</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.6755053277288198</v>
       </c>
     </row>
@@ -9801,72 +9543,66 @@
         <v>1.79849963868471e-08</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.7389400841047676</v>
+        <v>6.838404428276034e-08</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.2091678021282504</v>
+        <v>9.976042811057986e-07</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>6.838404428276034e-08</v>
+        <v>0.02393244974729099</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>9.976042811057986e-07</v>
+        <v>0.1197592280612849</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0.02393244974729099</v>
+        <v>0.01491425864829277</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1197592280612849</v>
+        <v>1.855471379002857</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01491425864829277</v>
+        <v>2.101366651701554</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.83235425569315</v>
+        <v>3.628299738519349</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>2.101366651701554</v>
+        <v>4.209408873086638e-17</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>3.628299738519349</v>
+        <v>1489238189.732203</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.209408873086638e-17</v>
+        <v>7.916756452634563e-08</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1489238189.732203</v>
+        <v>93.35754904806035</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>7.916756452634563e-08</v>
+        <v>7.27807014275764e-05</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>93.35754904806035</v>
+        <v>10.29677568230922</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>7.27807014275764e-05</v>
+        <v>1.430799598089648</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>10.29677568230922</v>
+        <v>0.007716471208170995</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.430799598089648</v>
+        <v>4.035501023388554</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.007716471208170995</v>
+        <v>0.9591774927865107</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>4.035501023388554</v>
+        <v>1.524535043532058</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9591774927865107</v>
+        <v>27</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.524535043532058</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.631518398163232</v>
       </c>
     </row>
@@ -10243,7 +9979,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.416236971194655</v>
+        <v>1.458637629329332</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.500703425893437</v>
@@ -10332,7 +10068,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.443294148078675</v>
+        <v>1.484766484519046</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.41713073235495</v>
@@ -10421,7 +10157,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.449601397565105</v>
+        <v>1.492130936344049</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.306282460471273</v>
@@ -10510,7 +10246,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.462232037464786</v>
+        <v>1.504861065851736</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.585296540264073</v>
@@ -10599,7 +10335,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.489166287118725</v>
+        <v>1.530214337896032</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.565897533259124</v>
@@ -10688,7 +10424,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.487319155595916</v>
+        <v>1.532240519161707</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.411613419357117</v>
@@ -10777,7 +10513,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.536232769589389</v>
+        <v>1.587296559664383</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.408363332079472</v>
@@ -10866,7 +10602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.53940002155935</v>
+        <v>1.584510580171103</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.41840586155802</v>
@@ -10955,7 +10691,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.544711896372855</v>
+        <v>1.5944741952154</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.354554222546976</v>
@@ -11044,7 +10780,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.556679171780275</v>
+        <v>1.608956563266877</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.517819649393054</v>
@@ -11133,7 +10869,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.534787861586302</v>
+        <v>1.583551677814692</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.270359530500971</v>
@@ -11222,7 +10958,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.540890501075432</v>
+        <v>1.589687273141693</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.399089294165068</v>
@@ -11311,7 +11047,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.542238601875187</v>
+        <v>1.590326875565592</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.435862438194258</v>
@@ -11400,7 +11136,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571211008300247</v>
+        <v>1.618278210638296</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.512065089520837</v>
@@ -11489,7 +11225,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.619776454350864</v>
+        <v>1.658343776649945</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.510651053707875</v>
@@ -11578,7 +11314,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.582478835588357</v>
+        <v>1.625185285741566</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.183576881897455</v>
@@ -11667,7 +11403,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.599602491683112</v>
+        <v>1.643605336049248</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.443564819508006</v>
@@ -11756,7 +11492,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.560795958801204</v>
+        <v>1.605889540469902</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.451591531550234</v>
@@ -11845,7 +11581,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.568142754216032</v>
+        <v>1.613676158503716</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.643861676829069</v>
@@ -11934,7 +11670,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.575536112920688</v>
+        <v>1.62201835051111</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.65750370625807</v>
@@ -12023,7 +11759,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.577835818722815</v>
+        <v>1.618843587427507</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.526292150735081</v>
@@ -12112,7 +11848,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.571066510941776</v>
+        <v>1.609729840738257</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.489795980570626</v>
@@ -12201,7 +11937,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.568185300106463</v>
+        <v>1.608565818547032</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.607151317161118</v>
@@ -12290,7 +12026,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.547215404595729</v>
+        <v>1.589021993425466</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.553240389755072</v>
@@ -12379,7 +12115,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.547148100649603</v>
+        <v>1.589113318680264</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.575923525328398</v>
@@ -12468,7 +12204,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570510100183778</v>
+        <v>1.610042466546938</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.494585433121388</v>
@@ -12557,7 +12293,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.576908848230604</v>
+        <v>1.615252413926518</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.529545475136923</v>
@@ -12646,7 +12382,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.556478186708546</v>
+        <v>1.594118303165683</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.475044706965228</v>
@@ -12735,7 +12471,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.554422580170454</v>
+        <v>1.597336364243475</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.699128291826742</v>
@@ -12824,7 +12560,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.574379792762961</v>
+        <v>1.614826414634981</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.272079562400448</v>
@@ -12913,7 +12649,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.565702074472831</v>
+        <v>1.610207608441768</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.435968765664532</v>
@@ -13002,7 +12738,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.559843113537037</v>
+        <v>1.606400898643874</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.664062451683947</v>
@@ -13091,7 +12827,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.596382208592067</v>
+        <v>1.640903208707799</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.68232512554889</v>
@@ -13180,7 +12916,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.583628109830697</v>
+        <v>1.627162562501403</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.519830358972214</v>
@@ -13269,7 +13005,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.584215595078861</v>
+        <v>1.627502888686684</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.426054349510484</v>
@@ -13358,7 +13094,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.61759889599759</v>
+        <v>1.666375661434844</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.446465879432343</v>
@@ -13447,7 +13183,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.626000654350294</v>
+        <v>1.67724325616771</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.58633647594801</v>
@@ -13536,7 +13272,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.626615368074858</v>
+        <v>1.675112128134075</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.311660471379821</v>
@@ -13625,7 +13361,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.655677726690944</v>
+        <v>1.703013403283938</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.530033959787662</v>
@@ -13714,7 +13450,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.654806211521672</v>
+        <v>1.701707895607596</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.480675300475546</v>
@@ -13803,7 +13539,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.65752163258582</v>
+        <v>1.705685110283326</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.482032792449709</v>
@@ -13892,7 +13628,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.668081680245254</v>
+        <v>1.715376298457388</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.447818788120817</v>
@@ -13981,7 +13717,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.698113645290015</v>
+        <v>1.745512795556164</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.585194341416535</v>
@@ -14070,7 +13806,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.633264077021832</v>
+        <v>1.676334610275703</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.507565113304996</v>
@@ -14159,7 +13895,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.631186339656672</v>
+        <v>1.674546828579442</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.395072855954135</v>
@@ -14248,7 +13984,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.671336984281414</v>
+        <v>1.706147797490722</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.474137105616456</v>
@@ -14337,7 +14073,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.638219915437789</v>
+        <v>1.672184774282775</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.532204095353497</v>
@@ -14426,7 +14162,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.648811373230798</v>
+        <v>1.681434378824664</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.627916749250131</v>
@@ -14515,7 +14251,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.628935728248668</v>
+        <v>1.661343708301579</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.453627855114404</v>
@@ -14604,7 +14340,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.618619729548917</v>
+        <v>1.652906268027761</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.4593806544364</v>
@@ -14693,7 +14429,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.613856118783351</v>
+        <v>1.646293022624138</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.458399785986546</v>
@@ -14782,7 +14518,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.591703090096681</v>
+        <v>1.620390555845565</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.478002463112642</v>
@@ -14871,7 +14607,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.613232803764967</v>
+        <v>1.644798737012248</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.495963213854544</v>
@@ -14960,7 +14696,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.612228348879067</v>
+        <v>1.645005220067177</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.486907258357112</v>
@@ -15049,7 +14785,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.612807083451465</v>
+        <v>1.64165176634231</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.534454899607705</v>
@@ -15138,7 +14874,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.560712970592967</v>
+        <v>1.587325242292246</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.570117549786601</v>
@@ -15227,7 +14963,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.510973549848337</v>
+        <v>1.539838970440246</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.500739532491967</v>
@@ -15316,7 +15052,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.498438643108351</v>
+        <v>1.526153549812987</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.546626703013479</v>
@@ -15405,7 +15141,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.517076977004129</v>
+        <v>1.552745088164808</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.563076337211083</v>
@@ -15494,7 +15230,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.472707651330064</v>
+        <v>1.512613295310109</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.539776774099967</v>
@@ -15583,7 +15319,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.466440978588645</v>
+        <v>1.506634880784866</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.468773893982035</v>
@@ -15672,7 +15408,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.463194485989657</v>
+        <v>1.506510011062142</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.557420691475646</v>
@@ -15761,7 +15497,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.455513831165369</v>
+        <v>1.499858640870026</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.514507739051272</v>
@@ -15850,7 +15586,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.475927568093907</v>
+        <v>1.5202821691494</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.331952904187997</v>
@@ -15939,7 +15675,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.471799276429823</v>
+        <v>1.517403319691955</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.501748561240036</v>
@@ -16028,7 +15764,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.443948408641057</v>
+        <v>1.487424124605237</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.387596923594581</v>
@@ -16117,7 +15853,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.461346981296018</v>
+        <v>1.50913674039493</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.486749349005152</v>
@@ -16206,7 +15942,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.443522256437081</v>
+        <v>1.483043002184648</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.578694188824131</v>
@@ -16295,7 +16031,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.427796925947765</v>
+        <v>1.466926400882466</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.595930693310634</v>
@@ -16384,7 +16120,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.415418259511636</v>
+        <v>1.452524274177053</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.620511444498128</v>
@@ -16473,7 +16209,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.447254903422896</v>
+        <v>1.48629671239554</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.179053901599494</v>
@@ -16562,7 +16298,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.464259381913491</v>
+        <v>1.508474963874837</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.339813897116664</v>
@@ -16651,7 +16387,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.48827144756166</v>
+        <v>1.527490895052942</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.421246719553269</v>
@@ -16740,7 +16476,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.504166276170177</v>
+        <v>1.53985188387201</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.190224732187057</v>
@@ -16829,7 +16565,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.472797426323879</v>
+        <v>1.510440095742245</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.28398655871621</v>
@@ -16918,7 +16654,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.454648655065107</v>
+        <v>1.493226236864278</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.399280152549718</v>
@@ -17007,7 +16743,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.442275483777448</v>
+        <v>1.479829755746345</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.337460734212127</v>
@@ -17096,7 +16832,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.417880631902781</v>
+        <v>1.448898113948675</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.39738831540954</v>
@@ -17185,7 +16921,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.410433587298614</v>
+        <v>1.441681699060764</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.37002895561965</v>
@@ -17274,7 +17010,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.394217611059182</v>
+        <v>1.422277129336667</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.26212871835713</v>
@@ -17363,7 +17099,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.379560237432665</v>
+        <v>1.409066763189918</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.430851668424202</v>
@@ -17452,7 +17188,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.361446293938159</v>
+        <v>1.3915414318781</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.307942109831236</v>
@@ -17541,7 +17277,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.363470467377565</v>
+        <v>1.394793491042755</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.247326837566833</v>
@@ -17630,7 +17366,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.345888592542595</v>
+        <v>1.377848198395055</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.306010221057253</v>
@@ -17719,7 +17455,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.343911820100371</v>
+        <v>1.376040196896041</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.34253136053662</v>
@@ -17808,7 +17544,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.334492111323954</v>
+        <v>1.366791388967245</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.285097757789644</v>
@@ -17897,7 +17633,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.319541032128975</v>
+        <v>1.346673960145047</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.389069755671868</v>
@@ -18183,7 +17919,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.374952765065794</v>
+        <v>1.37713282316963</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.258925895236826</v>
@@ -18272,7 +18008,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.383643871467821</v>
+        <v>1.384431338596108</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.009998931517367</v>
@@ -18361,7 +18097,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.400960891807547</v>
+        <v>1.40497300224877</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.170204696469991</v>
@@ -18450,7 +18186,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.41534406254795</v>
+        <v>1.411484392535483</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.184228868011925</v>
@@ -18539,7 +18275,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.43061416064583</v>
+        <v>1.414959952264251</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.995441927893426</v>
@@ -18628,7 +18364,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.439899845547776</v>
+        <v>1.421340971157338</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.004100029829672</v>
@@ -18717,7 +18453,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.49451870148372</v>
+        <v>1.465502272389158</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.419755410590598</v>
@@ -18806,7 +18542,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.513527540919338</v>
+        <v>1.481017298159084</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.359907311292256</v>
@@ -18895,7 +18631,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.537075801629505</v>
+        <v>1.502555098802351</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.543742617513877</v>
@@ -18984,7 +18720,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.552197074408219</v>
+        <v>1.514591055277806</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.52300616603766</v>
@@ -19073,7 +18809,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.519844938952965</v>
+        <v>1.483878871692299</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.192269527893789</v>
@@ -19162,7 +18898,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.529459343564811</v>
+        <v>1.491543078577082</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.192753826583492</v>
@@ -19251,7 +18987,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.544253976348351</v>
+        <v>1.511086951896373</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.42943993104681</v>
@@ -19340,7 +19076,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.549361860662305</v>
+        <v>1.518257568114673</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.289471684678491</v>
@@ -19429,7 +19165,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.555839116020711</v>
+        <v>1.530234398993737</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.294708581561261</v>
@@ -19518,7 +19254,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.51502227454577</v>
+        <v>1.495487659401243</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.240307236477611</v>
@@ -19607,7 +19343,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.523301628432711</v>
+        <v>1.507182659801975</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.22923135198883</v>
@@ -19696,7 +19432,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.533854699350898</v>
+        <v>1.512961549969019</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.317990788789809</v>
@@ -19785,7 +19521,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.53525407971129</v>
+        <v>1.520836886744816</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.311238660247918</v>
@@ -19874,7 +19610,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.540329862231773</v>
+        <v>1.526553466189203</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.337886978465471</v>
@@ -19963,7 +19699,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.525765397642821</v>
+        <v>1.512228268030085</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.429466175381533</v>
@@ -20052,7 +19788,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.51776760802169</v>
+        <v>1.509065688743975</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.466268508830551</v>
@@ -20141,7 +19877,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.516956345044719</v>
+        <v>1.505170702782906</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.418404456503903</v>
@@ -20230,7 +19966,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.508423236651632</v>
+        <v>1.494985606980753</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.375106756574796</v>
@@ -20319,7 +20055,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.50477207833717</v>
+        <v>1.495636093971531</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.324582996725717</v>
@@ -20408,7 +20144,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.536911989975081</v>
+        <v>1.529265727607239</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.72606592665804</v>
@@ -20497,7 +20233,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.538958727471686</v>
+        <v>1.529411371554123</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.61731659033478</v>
@@ -20586,7 +20322,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.53230524199486</v>
+        <v>1.52037100032206</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.718678973582325</v>
@@ -20675,7 +20411,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.539881465656943</v>
+        <v>1.528352413175959</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.688507735203569</v>
@@ -20764,7 +20500,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.543817859969438</v>
+        <v>1.53063193552887</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.661406309481481</v>
@@ -20853,7 +20589,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.575452522404248</v>
+        <v>1.561675209248972</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.609343709022293</v>
@@ -20942,7 +20678,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.57299466659084</v>
+        <v>1.558668402972274</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.677912002179077</v>
@@ -21031,7 +20767,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.567360529743119</v>
+        <v>1.560758059640104</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.652534468408392</v>
@@ -21120,7 +20856,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.545332178590053</v>
+        <v>1.535147408200077</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.758553701879263</v>
@@ -21209,7 +20945,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.544136674105029</v>
+        <v>1.534824766467666</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.524595590029863</v>
@@ -21298,7 +21034,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.566181532412682</v>
+        <v>1.555892019959863</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.377546021736047</v>
@@ -21387,7 +21123,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.598539790170015</v>
+        <v>1.59027831610659</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.850923917546099</v>
@@ -21476,7 +21212,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.609549122160342</v>
+        <v>1.601924305161193</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.809117483400218</v>
@@ -21565,7 +21301,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.619974616710767</v>
+        <v>1.616172670325421</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.738628168033269</v>
@@ -21654,7 +21390,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.624050284919545</v>
+        <v>1.619830234015511</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.874329241360445</v>
@@ -21743,7 +21479,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62265362595721</v>
+        <v>1.616264183053382</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.705166317798454</v>
@@ -21832,7 +21568,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.618785899216021</v>
+        <v>1.613144333994538</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.637039835185683</v>
@@ -21921,7 +21657,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.621617757802198</v>
+        <v>1.618658924923821</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.780933922819563</v>
@@ -22010,7 +21746,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.588123068193755</v>
+        <v>1.578727754106257</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.45444321772349</v>
@@ -22099,7 +21835,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.577442438635247</v>
+        <v>1.578676779101148</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.588795421886283</v>
@@ -22188,7 +21924,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.58105303614183</v>
+        <v>1.577852799051526</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.494970223455765</v>
@@ -22277,7 +22013,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.572828881930744</v>
+        <v>1.576368238419443</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.660494579353478</v>
@@ -22366,7 +22102,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.588284268931028</v>
+        <v>1.586160204297883</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.626527710791459</v>
@@ -22455,7 +22191,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.600228655905619</v>
+        <v>1.59490250942535</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.629554126218891</v>
@@ -22544,7 +22280,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.580590566291625</v>
+        <v>1.587222019591318</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.629520201601441</v>
@@ -22633,7 +22369,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.595214862959909</v>
+        <v>1.600011089093035</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.544121307531281</v>
@@ -22722,7 +22458,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.582679576163542</v>
+        <v>1.581006076253031</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.597243779084643</v>
@@ -22811,7 +22547,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.580208593762844</v>
+        <v>1.580506479281754</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.574469676528857</v>
@@ -22900,7 +22636,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.582019689832827</v>
+        <v>1.584514484090159</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.713933089713963</v>
@@ -22989,7 +22725,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.591106545252045</v>
+        <v>1.59266048073863</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.69191644093069</v>
@@ -23078,7 +22814,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.583751103827309</v>
+        <v>1.59193878115442</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.423432489253234</v>
@@ -23167,7 +22903,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.591333042197232</v>
+        <v>1.59569921370794</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.650013547376629</v>
@@ -23256,7 +22992,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.591266673519354</v>
+        <v>1.591144561100766</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.684133017745454</v>
@@ -23345,7 +23081,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.616460987000706</v>
+        <v>1.621475230892552</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.806631217404731</v>
@@ -23434,7 +23170,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.616652583998982</v>
+        <v>1.613052134525248</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.806574916643205</v>
@@ -23523,7 +23259,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.618324846517802</v>
+        <v>1.612739531404234</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.820406724821533</v>
@@ -23612,7 +23348,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.607151580554278</v>
+        <v>1.600626349344652</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.796538683528881</v>
@@ -23701,7 +23437,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.608249374632073</v>
+        <v>1.601672599360625</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.684832580465415</v>
@@ -23790,7 +23526,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.627797289901672</v>
+        <v>1.618871371360498</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.520669484177886</v>
@@ -23879,7 +23615,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.613741872628374</v>
+        <v>1.607434115352877</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.915921243246601</v>
@@ -23968,7 +23704,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.601495965911205</v>
+        <v>1.591889762126341</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.87857208969022</v>
@@ -24057,7 +23793,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.618346611501235</v>
+        <v>1.60960568355708</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.924591168502432</v>
@@ -24146,7 +23882,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.594881925300969</v>
+        <v>1.576151601695012</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.450543637455195</v>
@@ -24235,7 +23971,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.586313521662138</v>
+        <v>1.575292485945234</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.701085178008693</v>
@@ -24324,7 +24060,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.56815863155584</v>
+        <v>1.556135713502016</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.635381843354284</v>
@@ -24413,7 +24149,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.576248480594207</v>
+        <v>1.565407760640178</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.66995124617101</v>
@@ -24502,7 +24238,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.554457840464735</v>
+        <v>1.548375202696309</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.748158733562407</v>
@@ -24591,7 +24327,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.55987978297175</v>
+        <v>1.552327645888899</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.758427773204376</v>
@@ -24680,7 +24416,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.560422282736398</v>
+        <v>1.559770224819587</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.705896941007347</v>
@@ -24769,7 +24505,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.526669356145397</v>
+        <v>1.527383261942339</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.701407452356542</v>
@@ -24858,7 +24594,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.495313851375792</v>
+        <v>1.496588510628427</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.780741511237558</v>
@@ -24947,7 +24683,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.464373238238574</v>
+        <v>1.468806839956845</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.586376294861124</v>
@@ -25036,7 +24772,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.441049354452994</v>
+        <v>1.442556500484117</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.745876427658949</v>
@@ -25125,7 +24861,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.419084083459478</v>
+        <v>1.422842053001618</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.565472928882411</v>
@@ -25214,7 +24950,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.411092167008723</v>
+        <v>1.412514544860119</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.441020067100685</v>
@@ -25303,7 +25039,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.394560035749228</v>
+        <v>1.395825484410376</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.504056034997189</v>
@@ -25392,7 +25128,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.393658024346399</v>
+        <v>1.392206564228438</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.622161083639619</v>
@@ -25481,7 +25217,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.404928004628573</v>
+        <v>1.401274858455528</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.423701801682659</v>
@@ -25570,7 +25306,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.372116908826544</v>
+        <v>1.366411412636271</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.524239166955978</v>
@@ -25659,7 +25395,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.374838326323117</v>
+        <v>1.369350061059163</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.523714115591843</v>
@@ -25748,7 +25484,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.366475626664444</v>
+        <v>1.357212075979549</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.593760562673607</v>
@@ -25837,7 +25573,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.357700488988433</v>
+        <v>1.345277316673448</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.521506194413377</v>
@@ -26123,7 +25859,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.697105555522708</v>
+        <v>1.704999149509718</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.710466470371031</v>
@@ -26212,7 +25948,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.70159961253712</v>
+        <v>1.707702377391149</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.556038399728374</v>
@@ -26301,7 +26037,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.701191496490296</v>
+        <v>1.714523100975343</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.661232697332944</v>
@@ -26390,7 +26126,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.709996612410843</v>
+        <v>1.728104709627779</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.650287207564288</v>
@@ -26479,7 +26215,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.713785087503602</v>
+        <v>1.740166097850477</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.920466667550577</v>
@@ -26568,7 +26304,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.714220063674323</v>
+        <v>1.738168024969901</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.784740416411248</v>
@@ -26657,7 +26393,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.742169186073593</v>
+        <v>1.768712318982718</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.515207037154871</v>
@@ -26746,7 +26482,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.746453534599226</v>
+        <v>1.77410326360362</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.694567829759606</v>
@@ -26835,7 +26571,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.746492957975781</v>
+        <v>1.774002330117176</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.528205208963025</v>
@@ -26924,7 +26660,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.758007938882314</v>
+        <v>1.787554584607328</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.729605975043031</v>
@@ -27013,7 +26749,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.735406486081302</v>
+        <v>1.765751035017262</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.597863643255105</v>
@@ -27102,7 +26838,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.768288168882922</v>
+        <v>1.792794717365819</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.705058973020408</v>
@@ -27191,7 +26927,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.784999406359258</v>
+        <v>1.80407999221455</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.435955049332366</v>
@@ -27280,7 +27016,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.785988548395068</v>
+        <v>1.801454568055952</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.687542309747147</v>
@@ -27369,7 +27105,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.8011080199849</v>
+        <v>1.812860818744428</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.733578254571973</v>
@@ -27458,7 +27194,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.789080013852185</v>
+        <v>1.801713897679387</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.652441807952854</v>
@@ -27547,7 +27283,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.802414060336829</v>
+        <v>1.815010288036217</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.64549162224975</v>
@@ -27636,7 +27372,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.804756232046446</v>
+        <v>1.815820319761172</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.644865691843556</v>
@@ -27725,7 +27461,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.801437121636605</v>
+        <v>1.809584431627239</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.373105765923851</v>
@@ -27814,7 +27550,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.795529332624963</v>
+        <v>1.797055502470964</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.583032592572791</v>
@@ -27903,7 +27639,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.791914726547211</v>
+        <v>1.790075434161121</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.72730121126895</v>
@@ -27992,7 +27728,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.78734583234916</v>
+        <v>1.784169334295474</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.400831496454346</v>
@@ -28081,7 +27817,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.786455508574453</v>
+        <v>1.781835521761914</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.665243286158749</v>
@@ -28170,7 +27906,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.792445577035279</v>
+        <v>1.785350230738158</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.808679316979388</v>
@@ -28259,7 +27995,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.79383755689921</v>
+        <v>1.789009816547447</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.514721599129167</v>
@@ -28348,7 +28084,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.820087132322375</v>
+        <v>1.806737605172503</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.946563142038028</v>
@@ -28437,7 +28173,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.831309911409613</v>
+        <v>1.815536833441311</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.987192315732657</v>
@@ -28526,7 +28262,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.816815176215588</v>
+        <v>1.803184649904253</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.690122036450192</v>
@@ -28615,7 +28351,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.825382897256687</v>
+        <v>1.812864905249427</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.2394404529982</v>
@@ -28704,7 +28440,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.834116075647481</v>
+        <v>1.819546817507263</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.255767864023674</v>
@@ -28793,7 +28529,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.84062526170325</v>
+        <v>1.828693506703988</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.462442292049484</v>
@@ -28882,7 +28618,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.844621095816624</v>
+        <v>1.833864581213431</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.188424925168726</v>
@@ -28971,7 +28707,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.850718106377487</v>
+        <v>1.838165337690128</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.096678672901701</v>
@@ -29060,7 +28796,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.839008156272994</v>
+        <v>1.829167420695795</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.464071155769445</v>
@@ -29149,7 +28885,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.845018570400675</v>
+        <v>1.840683496656921</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.271152195990876</v>
@@ -29238,7 +28974,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.858405414862815</v>
+        <v>1.855047434089657</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.762663452956566</v>
@@ -29327,7 +29063,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.875579357675112</v>
+        <v>1.87266556077107</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.992524911647974</v>
@@ -29416,7 +29152,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.872134327384941</v>
+        <v>1.872015255786718</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.633527323289725</v>
@@ -29505,7 +29241,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.873926148320165</v>
+        <v>1.876174867747955</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.867610760632171</v>
@@ -29594,7 +29330,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.87072675683974</v>
+        <v>1.875443833992586</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.666915567767962</v>
@@ -29683,7 +29419,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.868389017486767</v>
+        <v>1.879854629871064</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.735532622272981</v>
@@ -29772,7 +29508,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.871661155277993</v>
+        <v>1.886725992719821</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.036777844374638</v>
@@ -29861,7 +29597,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.884771132812062</v>
+        <v>1.898881716836882</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.615713637376473</v>
@@ -29950,7 +29686,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.855548141146599</v>
+        <v>1.878489250053631</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.266508327141909</v>
@@ -30039,7 +29775,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.851105750623811</v>
+        <v>1.875840378061403</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.197254179301536</v>
@@ -30128,7 +29864,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.849123104382955</v>
+        <v>1.868357676699202</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.535366673644473</v>
@@ -30217,7 +29953,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.835293805199408</v>
+        <v>1.859650502847445</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.790636970107777</v>
@@ -30306,7 +30042,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.839065583383295</v>
+        <v>1.859003893705258</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.027311469417441</v>
@@ -30395,7 +30131,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.83950450683986</v>
+        <v>1.857813269759738</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.512967838311277</v>
@@ -30484,7 +30220,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.832726023867442</v>
+        <v>1.845152639502966</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.435975354339039</v>
@@ -30573,7 +30309,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.834118859745619</v>
+        <v>1.8475454535598</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.517043414041619</v>
@@ -30662,7 +30398,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.820499439517962</v>
+        <v>1.837550938861686</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.317256723748024</v>
@@ -30751,7 +30487,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.737793089964555</v>
+        <v>1.745758096516053</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.665515413720767</v>
@@ -30840,7 +30576,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.453806780718502</v>
+        <v>1.480931741729571</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.57566573253259</v>
@@ -30929,7 +30665,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.45102987065526</v>
+        <v>1.480468066548656</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.576493304476144</v>
@@ -31018,7 +30754,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.415109193773358</v>
+        <v>1.434862692471656</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.589729774738068</v>
@@ -31107,7 +30843,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.390524854625705</v>
+        <v>1.413581225326438</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.591398099329239</v>
@@ -31196,7 +30932,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.391936160986151</v>
+        <v>1.414193210367225</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.594241739052703</v>
@@ -31285,7 +31021,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.39686658013986</v>
+        <v>1.418791161598735</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.592806684888998</v>
@@ -31374,7 +31110,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.391875112006374</v>
+        <v>1.413297160896726</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.590903771023936</v>
@@ -31463,7 +31199,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.39439750753638</v>
+        <v>1.415568240606437</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.590640133257183</v>
@@ -31552,7 +31288,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.391071646216249</v>
+        <v>1.412190951197214</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>1.590584869455214</v>
@@ -31641,7 +31377,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.384980987232826</v>
+        <v>1.406162365961694</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>1.576751510040649</v>
@@ -31730,7 +31466,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.386075550440167</v>
+        <v>1.406469190064102</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.584896112743139</v>
@@ -31819,7 +31555,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.383061310699101</v>
+        <v>1.404713119864638</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.57817558517568</v>
@@ -31908,7 +31644,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.375086107397135</v>
+        <v>1.395918475824168</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.577951004679063</v>
@@ -31997,7 +31733,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.377792991373644</v>
+        <v>1.397302727041633</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.574072640317264</v>
@@ -32086,7 +31822,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.447129027002757</v>
+        <v>1.454604575696258</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.428701027174582</v>
@@ -32175,7 +31911,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.613735548037407</v>
+        <v>1.637032678552814</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.191922257091825</v>
@@ -32264,7 +32000,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.614160422735767</v>
+        <v>1.631662102054275</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.100971634112418</v>
@@ -32353,7 +32089,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.742848654298111</v>
+        <v>1.743524023186339</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.305397610042172</v>
@@ -32442,7 +32178,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.766001191688076</v>
+        <v>1.762512860037723</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.50458976506871</v>
@@ -32531,7 +32267,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.774145721423561</v>
+        <v>1.761174811360393</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.4084600531437</v>
@@ -32620,7 +32356,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.787496678645759</v>
+        <v>1.763798418977999</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.843646689826869</v>
@@ -32709,7 +32445,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.768400211907883</v>
+        <v>1.74416382225585</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.037112383337552</v>
@@ -32798,7 +32534,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.713241415530944</v>
+        <v>1.695432092584529</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.255027510215859</v>
@@ -32887,7 +32623,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.675516761901962</v>
+        <v>1.658151878680368</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.98367835221807</v>
@@ -32976,7 +32712,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.65375592894221</v>
+        <v>1.639786122059512</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.913127344069177</v>
@@ -33065,7 +32801,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.643158070765113</v>
+        <v>1.63319235842756</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.88351373745068</v>
@@ -33154,7 +32890,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.631538699186026</v>
+        <v>1.619130966696618</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.958464150376703</v>
@@ -33243,7 +32979,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.634817505949149</v>
+        <v>1.626002766955097</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.879923380351523</v>
@@ -33332,7 +33068,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.634757759592039</v>
+        <v>1.622860813812076</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.971233910301299</v>
@@ -33421,7 +33157,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.634506704405305</v>
+        <v>1.621462553242942</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.893757674696867</v>
@@ -33510,7 +33246,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.611138869338365</v>
+        <v>1.602794713226673</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.88207157297846</v>
@@ -33599,7 +33335,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.615334747206809</v>
+        <v>1.609930919467564</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.907023146110395</v>
@@ -33688,7 +33424,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.605974475977341</v>
+        <v>1.602648368211967</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.98876074740779</v>
@@ -33777,7 +33513,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.607089922644866</v>
+        <v>1.600368682760612</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.824021597339444</v>
@@ -34063,7 +33799,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.433829183966276</v>
+        <v>1.467821962944986</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.760082299631028</v>
@@ -34152,7 +33888,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.449112668556729</v>
+        <v>1.48465374647199</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.583523837791062</v>
@@ -34241,7 +33977,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.456614502239129</v>
+        <v>1.496079350774798</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.751154774333433</v>
@@ -34330,7 +34066,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.462313315736008</v>
+        <v>1.497995997941839</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.751731181149861</v>
@@ -34419,7 +34155,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.478178113721427</v>
+        <v>1.510247113399341</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.411984567643726</v>
@@ -34508,7 +34244,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.485942838961098</v>
+        <v>1.517534049035815</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.613717809563092</v>
@@ -34597,7 +34333,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.527910575664368</v>
+        <v>1.556415831710537</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.287659203202527</v>
@@ -34686,7 +34422,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.537798294149564</v>
+        <v>1.562925342389629</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.835699429874495</v>
@@ -34775,7 +34511,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.545140566485491</v>
+        <v>1.569648533157604</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.854167037808548</v>
@@ -34864,7 +34600,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554708908040489</v>
+        <v>1.571998807704372</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.895311694373693</v>
@@ -34953,7 +34689,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.54924532776305</v>
+        <v>1.565427973063734</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.472664753064084</v>
@@ -35042,7 +34778,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.564039635897475</v>
+        <v>1.579570874928584</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.538376319675877</v>
@@ -35131,7 +34867,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.573608044370367</v>
+        <v>1.585638906899866</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.038065637956566</v>
@@ -35220,7 +34956,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.571244280535744</v>
+        <v>1.576883889873821</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.941274026987313</v>
@@ -35309,7 +35045,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.585462739793185</v>
+        <v>1.586142504891039</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.936019669574398</v>
@@ -35398,7 +35134,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.579791075659402</v>
+        <v>1.584145245454942</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.509028881249766</v>
@@ -35487,7 +35223,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.580708187826263</v>
+        <v>1.582999027462584</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.786910840135159</v>
@@ -35576,7 +35312,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.563630250637015</v>
+        <v>1.567286545811587</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.810605208438702</v>
@@ -35665,7 +35401,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.569165495034009</v>
+        <v>1.570752795007101</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.897267548606598</v>
@@ -35754,7 +35490,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.560477039058614</v>
+        <v>1.563917281293429</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.971891393162457</v>
@@ -35843,7 +35579,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.560403908593798</v>
+        <v>1.563784975632133</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.141317395971532</v>
@@ -35932,7 +35668,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.546843942962199</v>
+        <v>1.546062866251937</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.130466555768767</v>
@@ -36021,7 +35757,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.549187329628137</v>
+        <v>1.552230999229982</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.090731757314913</v>
@@ -36110,7 +35846,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.531488751586154</v>
+        <v>1.542212494583598</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.558582613153714</v>
@@ -36199,7 +35935,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.533403197129303</v>
+        <v>1.547327597695283</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.481524910654838</v>
@@ -36288,7 +36024,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.532903443978735</v>
+        <v>1.548194931143794</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.537347279993751</v>
@@ -36377,7 +36113,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.526945874996472</v>
+        <v>1.538719222630696</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.522611007665451</v>
@@ -36466,7 +36202,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.514090914376812</v>
+        <v>1.525403479010775</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.569976097671566</v>
@@ -36555,7 +36291,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.527053212778953</v>
+        <v>1.538200761863522</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.469700920674911</v>
@@ -36644,7 +36380,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.539132741404398</v>
+        <v>1.550190569223256</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.489630879184817</v>
@@ -36733,7 +36469,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.533453625670818</v>
+        <v>1.549411529727827</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.455422056856114</v>
@@ -36822,7 +36558,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.54225326475933</v>
+        <v>1.558729639264849</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.581171084927148</v>
@@ -36911,7 +36647,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.558064181671947</v>
+        <v>1.575808452132755</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.600659361838677</v>
@@ -37000,7 +36736,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.565594689263563</v>
+        <v>1.584645591189601</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.378009069913493</v>
@@ -37089,7 +36825,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.574710340959931</v>
+        <v>1.594803157089825</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.542331266073736</v>
@@ -37178,7 +36914,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.5953209893735</v>
+        <v>1.613709297195117</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.544392833781364</v>
@@ -37267,7 +37003,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.60508141248536</v>
+        <v>1.630305059433012</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.718126878500398</v>
@@ -37356,7 +37092,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.608122827545206</v>
+        <v>1.629590396941405</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.537820479413132</v>
@@ -37445,7 +37181,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.639855154612229</v>
+        <v>1.655356314353043</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.90716915910298</v>
@@ -37534,7 +37270,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632702867087961</v>
+        <v>1.647799170707357</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.017360139570657</v>
@@ -37623,7 +37359,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.638451566225704</v>
+        <v>1.652899541453306</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.899123494680535</v>
@@ -37712,7 +37448,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.660762048251983</v>
+        <v>1.673300249650706</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.290161140075348</v>
@@ -37801,7 +37537,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.664078736153013</v>
+        <v>1.680578269360516</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.009704780678502</v>
@@ -37890,7 +37626,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.639389653288275</v>
+        <v>1.658866751928751</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.079980445341572</v>
@@ -37979,7 +37715,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.639700809272831</v>
+        <v>1.657181279509052</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.221716089358234</v>
@@ -38068,7 +37804,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.659848304900515</v>
+        <v>1.674899907353978</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.094809001215097</v>
@@ -38157,7 +37893,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.641738658284564</v>
+        <v>1.656866907355372</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.22872939375236</v>
@@ -38246,7 +37982,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.649278887077268</v>
+        <v>1.661834209588414</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.038469114126845</v>
@@ -38335,7 +38071,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.611320169945935</v>
+        <v>1.624095064154002</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.743299387053892</v>
@@ -38424,7 +38160,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.604474376162599</v>
+        <v>1.620355656545076</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.673321799922138</v>
@@ -38513,7 +38249,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594087308197043</v>
+        <v>1.611284330576372</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.764400512605139</v>
@@ -38602,7 +38338,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.593803308360137</v>
+        <v>1.594307977241917</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.401720528778533</v>
@@ -38691,7 +38427,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.571306007692791</v>
+        <v>1.588370558413799</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.518044057436698</v>
@@ -38780,7 +38516,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.57177697525401</v>
+        <v>1.590775712794816</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.57887596419011</v>
@@ -38869,7 +38605,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.575288047715998</v>
+        <v>1.594160722138095</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.590760845572352</v>
@@ -38958,7 +38694,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.568311857737962</v>
+        <v>1.585740773042434</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.652095198325383</v>
@@ -39047,7 +38783,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.547980408597885</v>
+        <v>1.567174348954381</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.45418887810074</v>
@@ -39136,7 +38872,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.548617660805747</v>
+        <v>1.565797638577917</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.543300561210208</v>
@@ -39225,7 +38961,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.560048121630716</v>
+        <v>1.577851449769581</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.501459608118038</v>
@@ -39314,7 +39050,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.541762613151267</v>
+        <v>1.566261615855487</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.62866558021504</v>
@@ -39403,7 +39139,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.547110123942312</v>
+        <v>1.566625810039774</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.524568540253913</v>
@@ -39492,7 +39228,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.549317093180604</v>
+        <v>1.565862463073119</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.447746967377229</v>
@@ -39581,7 +39317,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.536500055177331</v>
+        <v>1.553942178265369</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.513474189838827</v>
@@ -39670,7 +39406,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.567294986236191</v>
+        <v>1.578684920391134</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.265388979158915</v>
@@ -39759,7 +39495,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.57139720466488</v>
+        <v>1.576642698719399</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.4879071507042</v>
@@ -39848,7 +39584,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.568158717158891</v>
+        <v>1.579680226812018</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.519998813459438</v>
@@ -39937,7 +39673,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.596125661244869</v>
+        <v>1.607284934321647</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.333974773002494</v>
@@ -40026,7 +39762,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.602565949678252</v>
+        <v>1.609892807671854</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.069524034879784</v>
@@ -40115,7 +39851,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.590118352632261</v>
+        <v>1.595406162025535</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.219133209587572</v>
@@ -40204,7 +39940,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.589332268256658</v>
+        <v>1.592722846355685</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.344190054466517</v>
@@ -40293,7 +40029,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.609052337537678</v>
+        <v>1.608239498112042</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.676445640382478</v>
@@ -40382,7 +40118,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.614938826866664</v>
+        <v>1.619294916049794</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.968917908946902</v>
@@ -40471,7 +40207,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.626880314173755</v>
+        <v>1.626704906614088</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.062383116636463</v>
@@ -40560,7 +40296,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.628468183285174</v>
+        <v>1.621119575733628</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.561927754906506</v>
@@ -40649,7 +40385,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.595712639805922</v>
+        <v>1.590160891289827</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.637807841776977</v>
@@ -40738,7 +40474,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.45828765716672</v>
+        <v>1.463411647173895</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.912384544335237</v>
@@ -40827,7 +40563,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.440541754185436</v>
+        <v>1.439158406251052</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.902828905837676</v>
@@ -40916,7 +40652,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.413729027288874</v>
+        <v>1.408716556327842</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.937298350336772</v>
@@ -41005,7 +40741,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.413926669011451</v>
+        <v>1.412550005781614</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.943933875278341</v>
@@ -41094,7 +40830,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.408656039695398</v>
+        <v>1.405328315496337</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.880198375443505</v>
@@ -41183,7 +40919,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.399968767481885</v>
+        <v>1.393417700168625</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.948503537715235</v>
@@ -41272,7 +41008,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.397757858953486</v>
+        <v>1.392857250219991</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.943466421252288</v>
@@ -41361,7 +41097,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.395034247738475</v>
+        <v>1.388876604617119</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.934564851093118</v>
@@ -41450,7 +41186,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.385601131802217</v>
+        <v>1.377420755998698</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.949484609786021</v>
@@ -41539,7 +41275,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.385880825454155</v>
+        <v>1.377454615796379</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.964447653815669</v>
@@ -41628,7 +41364,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.37501657205413</v>
+        <v>1.367785759063444</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.932681855110615</v>
@@ -41717,7 +41453,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.374622348535085</v>
+        <v>1.36586931228949</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.945066863543072</v>
@@ -42003,7 +41739,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.146342740001558</v>
+        <v>1.128800284080794</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.128649096615248</v>
@@ -42092,7 +41828,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.154323726595463</v>
+        <v>1.137586835328508</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.11534932272503</v>
@@ -42181,7 +41917,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.1465961014279</v>
+        <v>1.131766348617922</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.057093874674557</v>
@@ -42270,7 +42006,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.159916397461713</v>
+        <v>1.144139511628373</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.120573788361246</v>
@@ -42359,7 +42095,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.16689401484374</v>
+        <v>1.150518540601331</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.022718446075435</v>
@@ -42448,7 +42184,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.156969315033948</v>
+        <v>1.142163872024656</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.948281957325187</v>
@@ -42537,7 +42273,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.178836075973309</v>
+        <v>1.166454118388685</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.968951256442051</v>
@@ -42626,7 +42362,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.194989558359686</v>
+        <v>1.176908846369104</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.975182077551778</v>
@@ -42715,7 +42451,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.193525353768435</v>
+        <v>1.175855544507125</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.042795735554218</v>
@@ -42804,7 +42540,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.194242444654962</v>
+        <v>1.179388066999531</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.965325310446527</v>
@@ -42893,7 +42629,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.190911857366372</v>
+        <v>1.168513842629656</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.90799761085579</v>
@@ -42982,7 +42718,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.199379760114716</v>
+        <v>1.178504965512009</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.917524777346538</v>
@@ -43071,7 +42807,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.202850716695053</v>
+        <v>1.182505736650392</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.038042251272182</v>
@@ -43160,7 +42896,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.202997468704185</v>
+        <v>1.183373579344565</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.011220154810647</v>
@@ -43249,7 +42985,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.225761371026967</v>
+        <v>1.203930854743153</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.963662688964058</v>
@@ -43338,7 +43074,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.212700364396024</v>
+        <v>1.195355139497304</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.861220634636677</v>
@@ -43427,7 +43163,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.212384245350676</v>
+        <v>1.192903641697671</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.926823548948027</v>
@@ -43516,7 +43252,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.208270752153024</v>
+        <v>1.188259517642058</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.963411483908003</v>
@@ -43605,7 +43341,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.205732883806033</v>
+        <v>1.186489142269826</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.958721272475644</v>
@@ -43694,7 +43430,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.21215178065793</v>
+        <v>1.19427792862127</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.99479031438541</v>
@@ -43783,7 +43519,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.21942381032272</v>
+        <v>1.202588779596633</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.071362977492344</v>
@@ -43872,7 +43608,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.217426919729521</v>
+        <v>1.19902003163681</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.115398504694328</v>
@@ -43961,7 +43697,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.219907288272521</v>
+        <v>1.201343120960547</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.068505174113529</v>
@@ -44050,7 +43786,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.215811638372038</v>
+        <v>1.199058685218317</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.106772589555997</v>
@@ -44139,7 +43875,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.216730556902337</v>
+        <v>1.197779986249456</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.078871564656958</v>
@@ -44228,7 +43964,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.23824073595995</v>
+        <v>1.226401265717066</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.078347309855527</v>
@@ -44317,7 +44053,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.232137023361078</v>
+        <v>1.218002032865205</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.053103927639198</v>
@@ -44406,7 +44142,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.226434102900305</v>
+        <v>1.209851238496792</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.101802109224713</v>
@@ -44495,7 +44231,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.24240099473374</v>
+        <v>1.228232392647126</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.028488588335312</v>
@@ -44584,7 +44320,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.254088080711753</v>
+        <v>1.238812193589305</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.960230663924393</v>
@@ -44673,7 +44409,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.2446114309326</v>
+        <v>1.227447732509136</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.982873574345775</v>
@@ -44762,7 +44498,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.23671608546427</v>
+        <v>1.222917621401183</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.08785769742701</v>
@@ -44851,7 +44587,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.264852370995112</v>
+        <v>1.252682106417677</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.112718182901091</v>
@@ -44940,7 +44676,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.270269723293094</v>
+        <v>1.260712704099208</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.003695504162259</v>
@@ -45029,7 +44765,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.272044728393095</v>
+        <v>1.262511186137406</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.080954857594302</v>
@@ -45118,7 +44854,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.295046208857706</v>
+        <v>1.285679087788782</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.064677698598055</v>
@@ -45207,7 +44943,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.308295497544663</v>
+        <v>1.302358128880565</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.061456830880951</v>
@@ -45296,7 +45032,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.292610919289739</v>
+        <v>1.288710699696502</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.888834986546522</v>
@@ -45385,7 +45121,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.317032438264427</v>
+        <v>1.316878459793568</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.991439904628453</v>
@@ -45474,7 +45210,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.316063557355132</v>
+        <v>1.314256820497629</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>1.993053183666099</v>
@@ -45563,7 +45299,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.295697228896</v>
+        <v>1.29311811234777</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>1.904794514533738</v>
@@ -45652,7 +45388,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.302852122266582</v>
+        <v>1.297651749748471</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>1.959408001324203</v>
@@ -45741,7 +45477,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.29449984413807</v>
+        <v>1.292072932510264</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.0237122662235</v>
@@ -45830,7 +45566,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.270968879684923</v>
+        <v>1.260520160492262</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.019960383790014</v>
@@ -45919,7 +45655,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.274059516552116</v>
+        <v>1.261611697139949</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.019974181353877</v>
@@ -46008,7 +45744,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.28828597241503</v>
+        <v>1.273003487223602</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>1.946018815084745</v>
@@ -46097,7 +45833,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.273968949025363</v>
+        <v>1.260595636820288</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.119591758724019</v>
@@ -46186,7 +45922,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.271242227543285</v>
+        <v>1.258021335898731</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.049099977392211</v>
@@ -46275,7 +46011,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.252564667860953</v>
+        <v>1.23255918194788</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.120852283268582</v>
@@ -46364,7 +46100,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.232137051728668</v>
+        <v>1.218744242299576</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.113608528443493</v>
@@ -46453,7 +46189,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.235673389092373</v>
+        <v>1.223978525079736</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.112191388829373</v>
@@ -46542,7 +46278,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.228891363872279</v>
+        <v>1.214071481433309</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.030411631682248</v>
@@ -46631,7 +46367,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.249121541690829</v>
+        <v>1.233991878998457</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.137500693450776</v>
@@ -46720,7 +46456,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.247706078362618</v>
+        <v>1.23262997552139</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.13333042651818</v>
@@ -46809,7 +46545,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.253464848993245</v>
+        <v>1.238261486769333</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.111639931824345</v>
@@ -46898,7 +46634,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.254451709813902</v>
+        <v>1.236935839473099</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.073628053548452</v>
@@ -46987,7 +46723,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.227736154753398</v>
+        <v>1.214972625092092</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.154527548019275</v>
@@ -47076,7 +46812,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.237735555484423</v>
+        <v>1.220460705696007</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.157963245040058</v>
@@ -47165,7 +46901,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.241699049178417</v>
+        <v>1.230088000212413</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.160827368142134</v>
@@ -47254,7 +46990,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.215569223983624</v>
+        <v>1.211673478344597</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.07957050082122</v>
@@ -47343,7 +47079,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.222549190178907</v>
+        <v>1.224046443546633</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.085409222681376</v>
@@ -47432,7 +47168,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.210235410516347</v>
+        <v>1.211106350084613</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.156131258327248</v>
@@ -47521,7 +47257,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.20764627686037</v>
+        <v>1.208751492778954</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.123099490528114</v>
@@ -47610,7 +47346,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.234348455641016</v>
+        <v>1.233013456069046</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.92255314294515</v>
@@ -47699,7 +47435,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.223400879016152</v>
+        <v>1.219576462855533</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.081044994503076</v>
@@ -47788,7 +47524,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.207278043460995</v>
+        <v>1.201493900808138</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.146671861493776</v>
@@ -47877,7 +47613,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.216374272405375</v>
+        <v>1.212158659538282</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.142585243026216</v>
@@ -47966,7 +47702,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.199594116467781</v>
+        <v>1.188552792533617</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.093000212022397</v>
@@ -48055,7 +47791,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.190849745006408</v>
+        <v>1.183351929918956</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.084206200964057</v>
@@ -48144,7 +47880,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.181607036452318</v>
+        <v>1.173874614646343</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.091858416882979</v>
@@ -48233,7 +47969,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.183646968669781</v>
+        <v>1.173430235721157</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.987835796102156</v>
@@ -48322,7 +48058,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.182695046158335</v>
+        <v>1.174052995359709</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.1086677280536</v>
@@ -48411,7 +48147,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.195706827562635</v>
+        <v>1.186110115357285</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.897542100968104</v>
@@ -48500,7 +48236,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.192056589376264</v>
+        <v>1.182300638880536</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.851637084810182</v>
@@ -48589,7 +48325,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.219641893422136</v>
+        <v>1.186034324457275</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.615606638116604</v>
@@ -48678,7 +48414,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.14918486440335</v>
+        <v>1.131242513096079</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.589540700435904</v>
@@ -48767,7 +48503,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.158458929123735</v>
+        <v>1.139502194489808</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.583545260837546</v>
@@ -48856,7 +48592,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.150067559849068</v>
+        <v>1.130472246368495</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.60574646889799</v>
@@ -48945,7 +48681,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.151584173801791</v>
+        <v>1.132906867353245</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.611114778278165</v>
@@ -49034,7 +48770,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.154456074172535</v>
+        <v>1.134991796013561</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.572635068089346</v>
@@ -49123,7 +48859,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.156285277920035</v>
+        <v>1.138607919793489</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.591765961723375</v>
@@ -49212,7 +48948,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.157337432942681</v>
+        <v>1.140250799094547</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.610921764794781</v>
@@ -49301,7 +49037,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.1642516873221</v>
+        <v>1.14774835343176</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.570207622358988</v>
@@ -49390,7 +49126,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.158773522613314</v>
+        <v>1.140676337915856</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.583473498292504</v>
@@ -49479,7 +49215,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.158653437578454</v>
+        <v>1.142495236366522</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.598834881480516</v>
@@ -49568,7 +49304,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.164992763264505</v>
+        <v>1.150472441824445</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.582787694928541</v>
@@ -49657,7 +49393,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.156660463410871</v>
+        <v>1.141106639980126</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.618551663562857</v>
@@ -49943,7 +49679,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.415716093652603</v>
+        <v>1.46164153053378</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.551253107969386</v>
@@ -50032,7 +49768,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.446762360383623</v>
+        <v>1.494604845355723</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.626983873903623</v>
@@ -50121,7 +49857,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.449451337237413</v>
+        <v>1.497619226997005</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.446575196958706</v>
@@ -50210,7 +49946,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.456654970740874</v>
+        <v>1.501559955150105</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.590034506997936</v>
@@ -50299,7 +50035,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.483173168047179</v>
+        <v>1.523251075318482</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.506107369429435</v>
@@ -50388,7 +50124,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.477119666413397</v>
+        <v>1.516372302662414</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.314057273757569</v>
@@ -50477,7 +50213,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.521432114844108</v>
+        <v>1.557929469271878</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.375369737511482</v>
@@ -50566,7 +50302,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.524401021358198</v>
+        <v>1.553904732077151</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.381022690356317</v>
@@ -50655,7 +50391,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.533087141307974</v>
+        <v>1.564094979605162</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.466134180829198</v>
@@ -50744,7 +50480,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.538397456719022</v>
+        <v>1.56518355742772</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.431795757191883</v>
@@ -50833,7 +50569,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.526219285948696</v>
+        <v>1.547512560534367</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.203912619037608</v>
@@ -50922,7 +50658,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.528167934619669</v>
+        <v>1.546897683131993</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.33807066392336</v>
@@ -51011,7 +50747,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.526512331049725</v>
+        <v>1.543343184315263</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.422455037453607</v>
@@ -51100,7 +50836,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.552593574208557</v>
+        <v>1.57011586978915</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.534865306963625</v>
@@ -51189,7 +50925,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.603159231256274</v>
+        <v>1.612124634412115</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.57799050564789</v>
@@ -51278,7 +51014,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.569412782177774</v>
+        <v>1.580298165231663</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.214646617088647</v>
@@ -51367,7 +51103,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.569052908450729</v>
+        <v>1.57838793726256</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.400380447904764</v>
@@ -51456,7 +51192,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.537223632760116</v>
+        <v>1.548585820825226</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.453928777842533</v>
@@ -51545,7 +51281,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543111080100465</v>
+        <v>1.555065841276503</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.463731605953227</v>
@@ -51634,7 +51370,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.544392246456772</v>
+        <v>1.557916969255815</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.546279676458434</v>
@@ -51723,7 +51459,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.553983936752235</v>
+        <v>1.567551720616807</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.52190187698248</v>
@@ -51812,7 +51548,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.552973428613049</v>
+        <v>1.568727787190165</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.462734732699303</v>
@@ -51901,7 +51637,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.547994435289241</v>
+        <v>1.566825149398244</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.529142344823344</v>
@@ -51990,7 +51726,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.52836039628879</v>
+        <v>1.551841839545614</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.459757083877133</v>
@@ -52079,7 +51815,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.527865464319986</v>
+        <v>1.554359099018461</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.478590844845464</v>
@@ -52168,7 +51904,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.548545191311396</v>
+        <v>1.57388022761892</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.450052541218582</v>
@@ -52257,7 +51993,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.556379473409934</v>
+        <v>1.581850466350945</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.398758416667321</v>
@@ -52346,7 +52082,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.532031992986629</v>
+        <v>1.555914982940825</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.417993141165311</v>
@@ -52435,7 +52171,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.535954738154169</v>
+        <v>1.557475448207756</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.544555425300719</v>
@@ -52524,7 +52260,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.550124985052942</v>
+        <v>1.564455773272057</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.24217572621211</v>
@@ -52613,7 +52349,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.537380547036522</v>
+        <v>1.558690584234265</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.369185111057907</v>
@@ -52702,7 +52438,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547361035682851</v>
+        <v>1.574619991223385</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.655462585565693</v>
@@ -52791,7 +52527,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.590798031300268</v>
+        <v>1.61724649907778</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.582594187302267</v>
@@ -52880,7 +52616,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59006642327308</v>
+        <v>1.617821504167686</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.493595319241434</v>
@@ -52969,7 +52705,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.592382243759978</v>
+        <v>1.622218214190343</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.506846147218738</v>
@@ -53058,7 +52794,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.620238150876948</v>
+        <v>1.652205319273334</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.548663650018595</v>
@@ -53147,7 +52883,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.625261315642955</v>
+        <v>1.660744309521203</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.720864917067208</v>
@@ -53236,7 +52972,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.636326534937649</v>
+        <v>1.667548967052248</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.357439070666791</v>
@@ -53325,7 +53061,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.665345737012447</v>
+        <v>1.695728672432587</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.525915985231989</v>
@@ -53414,7 +53150,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.67162893991549</v>
+        <v>1.706130268003662</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.487922016531773</v>
@@ -53503,7 +53239,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.673956764938379</v>
+        <v>1.709271547156033</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.512633149978327</v>
@@ -53592,7 +53328,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.680086722460745</v>
+        <v>1.710563955446547</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.482981647292078</v>
@@ -53681,7 +53417,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.714192092910204</v>
+        <v>1.745557931566329</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.549251839612805</v>
@@ -53770,7 +53506,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.647712349838958</v>
+        <v>1.68271707293409</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.71559704847583</v>
@@ -53859,7 +53595,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.652000891800493</v>
+        <v>1.688684128917098</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.477419058692556</v>
@@ -53948,7 +53684,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.701364872172291</v>
+        <v>1.730963324543769</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.390707890805113</v>
@@ -54037,7 +53773,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.671748411776179</v>
+        <v>1.705116447528679</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.632595743389793</v>
@@ -54126,7 +53862,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.66879491874843</v>
+        <v>1.702267179288232</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.638485730083314</v>
@@ -54215,7 +53951,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.641303597121922</v>
+        <v>1.672736563245342</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.512933813036447</v>
@@ -54304,7 +54040,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.628697374177318</v>
+        <v>1.661588235471713</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.714092747733165</v>
@@ -54393,7 +54129,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.627781554253932</v>
+        <v>1.660648705138154</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.47362241819431</v>
@@ -54482,7 +54218,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.610944052400484</v>
+        <v>1.635598954174762</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.535553679902236</v>
@@ -54571,7 +54307,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.630389847059416</v>
+        <v>1.653862299389574</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.631001721118309</v>
@@ -54660,7 +54396,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.621991405931281</v>
+        <v>1.646615791922993</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.534994013246649</v>
@@ -54749,7 +54485,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.615639308562274</v>
+        <v>1.633202229202861</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.613247234953409</v>
@@ -54838,7 +54574,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.570536032673736</v>
+        <v>1.586632573263244</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.703231942600635</v>
@@ -54927,7 +54663,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.531372905722923</v>
+        <v>1.554261934863751</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.564376497564071</v>
@@ -55016,7 +54752,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.51643661382272</v>
+        <v>1.535760302488476</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.570411948956351</v>
@@ -55105,7 +54841,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.538449173932326</v>
+        <v>1.563736718262673</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.713307179439173</v>
@@ -55194,7 +54930,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.493276328769002</v>
+        <v>1.525013614567178</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.540481806343373</v>
@@ -55283,7 +55019,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.494819477031232</v>
+        <v>1.52460999293452</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.563968270096292</v>
@@ -55372,7 +55108,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.483052128096537</v>
+        <v>1.510860522722343</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.78525742671739</v>
@@ -55461,7 +55197,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.47788080863241</v>
+        <v>1.504485195555993</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.659561810262863</v>
@@ -55550,7 +55286,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.500086055368985</v>
+        <v>1.52410456126747</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.336286640945772</v>
@@ -55639,7 +55375,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.494184747371441</v>
+        <v>1.520525253109042</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.542859130092489</v>
@@ -55728,7 +55464,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.469298142545638</v>
+        <v>1.495012522651443</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.609297852650218</v>
@@ -55817,7 +55553,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.480116202724567</v>
+        <v>1.509830855813656</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.556263192271421</v>
@@ -55906,7 +55642,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.457100959197423</v>
+        <v>1.482195862621071</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.443060508744877</v>
@@ -55995,7 +55731,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.449781824625231</v>
+        <v>1.476625988646866</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.543077115170637</v>
@@ -56084,7 +55820,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.441300191347693</v>
+        <v>1.470354274840713</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.539709074691572</v>
@@ -56173,7 +55909,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.470559367350488</v>
+        <v>1.499840321882103</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.220607274345</v>
@@ -56262,7 +55998,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.478829593280059</v>
+        <v>1.510203031673246</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.36645793280255</v>
@@ -56351,7 +56087,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.505282015582877</v>
+        <v>1.534404306746578</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.459898021040249</v>
@@ -56440,7 +56176,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.514016254758059</v>
+        <v>1.538104391832772</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.991980309053682</v>
@@ -56529,7 +56265,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.436411855105608</v>
+        <v>1.462593085352228</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.950348026186199</v>
@@ -56618,7 +56354,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.33450251475812</v>
+        <v>1.358966983447107</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.776967412515631</v>
@@ -56707,7 +56443,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.285298328759558</v>
+        <v>1.301899643842264</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.787985257761535</v>
@@ -56796,7 +56532,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.266249757549043</v>
+        <v>1.280038840975601</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.779643251363713</v>
@@ -56885,7 +56621,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.274297788446683</v>
+        <v>1.293779822376449</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.808712654932527</v>
@@ -56974,7 +56710,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.270651273608887</v>
+        <v>1.288161449425673</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.770996365613068</v>
@@ -57063,7 +56799,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.275485549650052</v>
+        <v>1.292562498054299</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.82495408439888</v>
@@ -57152,7 +56888,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.271955482223552</v>
+        <v>1.288790455400803</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.8183679466618</v>
@@ -57241,7 +56977,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.276648034800608</v>
+        <v>1.294491693048498</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.806960601652152</v>
@@ -57330,7 +57066,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.269472107820271</v>
+        <v>1.286653702458845</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.810702422191121</v>
@@ -57419,7 +57155,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.275249611810354</v>
+        <v>1.29208099255845</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.829138835091598</v>
@@ -57508,7 +57244,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.274374538859427</v>
+        <v>1.291459600216935</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.808733776945848</v>
@@ -57597,7 +57333,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.269385296892031</v>
+        <v>1.285453330564969</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.832617338888562</v>
